--- a/inst/extdata/can_lang.xlsx
+++ b/inst/extdata/can_lang.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="224">
   <si>
     <t xml:space="preserve">category</t>
   </si>
@@ -32,19 +32,28 @@
     <t xml:space="preserve">lang_known</t>
   </si>
   <si>
+    <t xml:space="preserve">Aboriginal languages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aboriginal languages, n.o.s.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Non-Official &amp; Non-Aboriginal languages</t>
   </si>
   <si>
     <t xml:space="preserve">Afrikaans</t>
   </si>
   <si>
+    <t xml:space="preserve">Afro-Asiatic languages, n.i.e.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Akan (Twi)</t>
   </si>
   <si>
     <t xml:space="preserve">Albanian</t>
   </si>
   <si>
-    <t xml:space="preserve">Aboriginal languages</t>
+    <t xml:space="preserve">Algonquian languages, n.i.e.</t>
   </si>
   <si>
     <t xml:space="preserve">Algonquin</t>
@@ -65,9 +74,18 @@
     <t xml:space="preserve">Assyrian Neo-Aramaic</t>
   </si>
   <si>
+    <t xml:space="preserve">Athabaskan languages, n.i.e.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Atikamekw</t>
   </si>
   <si>
+    <t xml:space="preserve">Austro-Asiatic languages, n.i.e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austronesian languages, n.i.e.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Azerbaijani</t>
   </si>
   <si>
@@ -86,6 +104,9 @@
     <t xml:space="preserve">Bengali</t>
   </si>
   <si>
+    <t xml:space="preserve">Berber languages, n.i.e.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bikol</t>
   </si>
   <si>
@@ -119,18 +140,39 @@
     <t xml:space="preserve">Cebuano</t>
   </si>
   <si>
+    <t xml:space="preserve">Celtic languages, n.i.e.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chaldean Neo-Aramaic</t>
   </si>
   <si>
     <t xml:space="preserve">Chilcotin</t>
   </si>
   <si>
+    <t xml:space="preserve">Chinese languages, n.i.e.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chinese, n.o.s.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Comox</t>
   </si>
   <si>
+    <t xml:space="preserve">Cree, n.o.s.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creole languages, n.i.e.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creole, n.o.s.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Croatian</t>
   </si>
   <si>
+    <t xml:space="preserve">Cushitic languages, n.i.e.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Czech</t>
   </si>
   <si>
@@ -149,6 +191,9 @@
     <t xml:space="preserve">Dogrib (Tlicho)</t>
   </si>
   <si>
+    <t xml:space="preserve">Dravidian languages, n.i.e.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dutch</t>
   </si>
   <si>
@@ -194,6 +239,9 @@
     <t xml:space="preserve">German</t>
   </si>
   <si>
+    <t xml:space="preserve">Germanic languages, n.i.e.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gitxsan (Gitksan)</t>
   </si>
   <si>
@@ -236,6 +284,9 @@
     <t xml:space="preserve">Hindi</t>
   </si>
   <si>
+    <t xml:space="preserve">Hmong-Mien languages</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hungarian</t>
   </si>
   <si>
@@ -248,15 +299,27 @@
     <t xml:space="preserve">Ilocano</t>
   </si>
   <si>
+    <t xml:space="preserve">Indo-Iranian languages, n.i.e.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Inuinnaqtun (Inuvialuktun)</t>
   </si>
   <si>
+    <t xml:space="preserve">Inuit languages, n.i.e.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Inuktitut</t>
   </si>
   <si>
+    <t xml:space="preserve">Iroquoian languages, n.i.e.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Italian</t>
   </si>
   <si>
+    <t xml:space="preserve">Italic (Romance) languages, n.i.e.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Japanese</t>
   </si>
   <si>
@@ -266,6 +329,9 @@
     <t xml:space="preserve">Kannada</t>
   </si>
   <si>
+    <t xml:space="preserve">Karenic languages</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kashmiri</t>
   </si>
   <si>
@@ -362,9 +428,18 @@
     <t xml:space="preserve">Nepali</t>
   </si>
   <si>
+    <t xml:space="preserve">Niger-Congo languages, n.i.e.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nilo-Saharan languages, n.i.e.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nisga'a</t>
   </si>
   <si>
+    <t xml:space="preserve">Non-official languages</t>
+  </si>
+  <si>
     <t xml:space="preserve">North Slavey (Hare)</t>
   </si>
   <si>
@@ -398,6 +473,9 @@
     <t xml:space="preserve">Oromo</t>
   </si>
   <si>
+    <t xml:space="preserve">Other languages, n.i.e.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ottawa (Odawa)</t>
   </si>
   <si>
@@ -437,6 +515,9 @@
     <t xml:space="preserve">Russian</t>
   </si>
   <si>
+    <t xml:space="preserve">Salish languages, n.i.e.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sarsi (Sarcee)</t>
   </si>
   <si>
@@ -446,6 +527,9 @@
     <t xml:space="preserve">Sekani</t>
   </si>
   <si>
+    <t xml:space="preserve">Semitic languages, n.i.e.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Serbian</t>
   </si>
   <si>
@@ -458,12 +542,24 @@
     <t xml:space="preserve">Shuswap (Secwepemctsin)</t>
   </si>
   <si>
+    <t xml:space="preserve">Sign languages, n.i.e</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sindhi</t>
   </si>
   <si>
     <t xml:space="preserve">Sinhala (Sinhalese)</t>
   </si>
   <si>
+    <t xml:space="preserve">Siouan languages, n.i.e.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slavey, n.o.s.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slavic languages, n.i.e.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Slovak</t>
   </si>
   <si>
@@ -509,6 +605,9 @@
     <t xml:space="preserve">Tahltan</t>
   </si>
   <si>
+    <t xml:space="preserve">Tai-Kadai languages, n.i.e</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tamil</t>
   </si>
   <si>
@@ -524,6 +623,9 @@
     <t xml:space="preserve">Tibetan</t>
   </si>
   <si>
+    <t xml:space="preserve">Tibeto-Burman languages, n.i.e.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tigrigna</t>
   </si>
   <si>
@@ -533,12 +635,18 @@
     <t xml:space="preserve">Tsimshian</t>
   </si>
   <si>
+    <t xml:space="preserve">Turkic languages, n.i.e.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Turkish</t>
   </si>
   <si>
     <t xml:space="preserve">Ukrainian</t>
   </si>
   <si>
+    <t xml:space="preserve">Uralic languages, n.i.e.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Urdu</t>
   </si>
   <si>
@@ -552,6 +660,9 @@
   </si>
   <si>
     <t xml:space="preserve">Vlaams (Flemish)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wakashan languages, n.i.e.</t>
   </si>
   <si>
     <t xml:space="preserve">Waray-Waray</t>
@@ -932,96 +1043,96 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>10260</v>
+        <v>590</v>
       </c>
       <c r="D2" t="n">
-        <v>4785</v>
+        <v>235</v>
       </c>
       <c r="E2" t="n">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="F2" t="n">
-        <v>23415</v>
+        <v>665</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>13460</v>
+        <v>10260</v>
       </c>
       <c r="D3" t="n">
-        <v>5985</v>
+        <v>4785</v>
       </c>
       <c r="E3" t="n">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="F3" t="n">
-        <v>22150</v>
+        <v>23415</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>26895</v>
+        <v>1150</v>
       </c>
       <c r="D4" t="n">
-        <v>13135</v>
+        <v>445</v>
       </c>
       <c r="E4" t="n">
-        <v>345</v>
+        <v>10</v>
       </c>
       <c r="F4" t="n">
-        <v>31930</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>1260</v>
+        <v>13460</v>
       </c>
       <c r="D5" t="n">
-        <v>370</v>
+        <v>5985</v>
       </c>
       <c r="E5" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F5" t="n">
-        <v>2480</v>
+        <v>22150</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="n">
-        <v>2685</v>
+        <v>26895</v>
       </c>
       <c r="D6" t="n">
-        <v>3020</v>
+        <v>13135</v>
       </c>
       <c r="E6" t="n">
-        <v>1145</v>
+        <v>345</v>
       </c>
       <c r="F6" t="n">
-        <v>21930</v>
+        <v>31930</v>
       </c>
     </row>
     <row r="7">
@@ -1032,16 +1143,16 @@
         <v>13</v>
       </c>
       <c r="C7" t="n">
-        <v>22465</v>
+        <v>45</v>
       </c>
       <c r="D7" t="n">
-        <v>12785</v>
+        <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>33670</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8">
@@ -1052,116 +1163,116 @@
         <v>14</v>
       </c>
       <c r="C8" t="n">
-        <v>419890</v>
+        <v>1260</v>
       </c>
       <c r="D8" t="n">
-        <v>223535</v>
+        <v>370</v>
       </c>
       <c r="E8" t="n">
-        <v>5585</v>
+        <v>40</v>
       </c>
       <c r="F8" t="n">
-        <v>629055</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="n">
-        <v>33460</v>
+        <v>2685</v>
       </c>
       <c r="D9" t="n">
-        <v>21510</v>
+        <v>3020</v>
       </c>
       <c r="E9" t="n">
-        <v>450</v>
+        <v>1145</v>
       </c>
       <c r="F9" t="n">
-        <v>41295</v>
+        <v>21930</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="n">
-        <v>16070</v>
+        <v>22465</v>
       </c>
       <c r="D10" t="n">
-        <v>10510</v>
+        <v>12785</v>
       </c>
       <c r="E10" t="n">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F10" t="n">
-        <v>19740</v>
+        <v>33670</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
       </c>
       <c r="C11" t="n">
-        <v>6150</v>
+        <v>419890</v>
       </c>
       <c r="D11" t="n">
-        <v>5465</v>
+        <v>223535</v>
       </c>
       <c r="E11" t="n">
-        <v>1100</v>
+        <v>5585</v>
       </c>
       <c r="F11" t="n">
-        <v>6645</v>
+        <v>629055</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
       </c>
       <c r="C12" t="n">
-        <v>3255</v>
+        <v>33460</v>
       </c>
       <c r="D12" t="n">
-        <v>1245</v>
+        <v>21510</v>
       </c>
       <c r="E12" t="n">
-        <v>25</v>
+        <v>450</v>
       </c>
       <c r="F12" t="n">
-        <v>5455</v>
+        <v>41295</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
       </c>
       <c r="C13" t="n">
-        <v>110</v>
+        <v>16070</v>
       </c>
       <c r="D13" t="n">
-        <v>20</v>
+        <v>10510</v>
       </c>
       <c r="E13" t="n">
-        <v>10</v>
+        <v>205</v>
       </c>
       <c r="F13" t="n">
-        <v>210</v>
+        <v>19740</v>
       </c>
     </row>
     <row r="14">
@@ -1172,96 +1283,96 @@
         <v>20</v>
       </c>
       <c r="C14" t="n">
-        <v>1535</v>
+        <v>50</v>
       </c>
       <c r="D14" t="n">
-        <v>345</v>
+        <v>10</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>3190</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
       </c>
       <c r="C15" t="n">
-        <v>190</v>
+        <v>6150</v>
       </c>
       <c r="D15" t="n">
-        <v>50</v>
+        <v>5465</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="F15" t="n">
-        <v>340</v>
+        <v>6645</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
       </c>
       <c r="C16" t="n">
-        <v>810</v>
+        <v>170</v>
       </c>
       <c r="D16" t="n">
-        <v>225</v>
+        <v>80</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>2265</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
       </c>
       <c r="C17" t="n">
-        <v>73125</v>
+        <v>4195</v>
       </c>
       <c r="D17" t="n">
-        <v>47350</v>
+        <v>1160</v>
       </c>
       <c r="E17" t="n">
-        <v>525</v>
+        <v>35</v>
       </c>
       <c r="F17" t="n">
-        <v>91220</v>
+        <v>5585</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
       </c>
       <c r="C18" t="n">
-        <v>1785</v>
+        <v>3255</v>
       </c>
       <c r="D18" t="n">
-        <v>290</v>
+        <v>1245</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F18" t="n">
-        <v>2075</v>
+        <v>5455</v>
       </c>
     </row>
     <row r="19">
@@ -1272,36 +1383,36 @@
         <v>25</v>
       </c>
       <c r="C19" t="n">
-        <v>805</v>
+        <v>110</v>
       </c>
       <c r="D19" t="n">
-        <v>615</v>
+        <v>20</v>
       </c>
       <c r="E19" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F19" t="n">
-        <v>1085</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
       </c>
       <c r="C20" t="n">
-        <v>2815</v>
+        <v>1535</v>
       </c>
       <c r="D20" t="n">
-        <v>1110</v>
+        <v>345</v>
       </c>
       <c r="E20" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>5645</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="21">
@@ -1312,216 +1423,216 @@
         <v>27</v>
       </c>
       <c r="C21" t="n">
-        <v>12215</v>
+        <v>190</v>
       </c>
       <c r="D21" t="n">
-        <v>6045</v>
+        <v>50</v>
       </c>
       <c r="E21" t="n">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>18265</v>
+        <v>340</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
         <v>28</v>
       </c>
       <c r="C22" t="n">
-        <v>20020</v>
+        <v>810</v>
       </c>
       <c r="D22" t="n">
-        <v>11985</v>
+        <v>225</v>
       </c>
       <c r="E22" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>22425</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
       </c>
       <c r="C23" t="n">
-        <v>3585</v>
+        <v>73125</v>
       </c>
       <c r="D23" t="n">
-        <v>2245</v>
+        <v>47350</v>
       </c>
       <c r="E23" t="n">
-        <v>75</v>
+        <v>525</v>
       </c>
       <c r="F23" t="n">
-        <v>4995</v>
+        <v>91220</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
         <v>30</v>
       </c>
       <c r="C24" t="n">
-        <v>565270</v>
+        <v>8985</v>
       </c>
       <c r="D24" t="n">
-        <v>400220</v>
+        <v>2615</v>
       </c>
       <c r="E24" t="n">
-        <v>58820</v>
+        <v>15</v>
       </c>
       <c r="F24" t="n">
-        <v>699125</v>
+        <v>12510</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
         <v>31</v>
       </c>
       <c r="C25" t="n">
-        <v>1025</v>
+        <v>1785</v>
       </c>
       <c r="D25" t="n">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="E25" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>2100</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
       </c>
       <c r="C26" t="n">
-        <v>870</v>
+        <v>805</v>
       </c>
       <c r="D26" t="n">
-        <v>350</v>
+        <v>615</v>
       </c>
       <c r="E26" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F26" t="n">
-        <v>2035</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
         <v>33</v>
       </c>
       <c r="C27" t="n">
-        <v>45</v>
+        <v>2815</v>
       </c>
       <c r="D27" t="n">
-        <v>10</v>
+        <v>1110</v>
       </c>
       <c r="E27" t="n">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="F27" t="n">
-        <v>125</v>
+        <v>5645</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
         <v>34</v>
       </c>
       <c r="C28" t="n">
-        <v>19890</v>
+        <v>12215</v>
       </c>
       <c r="D28" t="n">
-        <v>7205</v>
+        <v>6045</v>
       </c>
       <c r="E28" t="n">
-        <v>70</v>
+        <v>155</v>
       </c>
       <c r="F28" t="n">
-        <v>27040</v>
+        <v>18265</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
         <v>35</v>
       </c>
       <c r="C29" t="n">
-        <v>5545</v>
+        <v>20020</v>
       </c>
       <c r="D29" t="n">
-        <v>3445</v>
+        <v>11985</v>
       </c>
       <c r="E29" t="n">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="F29" t="n">
-        <v>7115</v>
+        <v>22425</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
         <v>36</v>
       </c>
       <c r="C30" t="n">
-        <v>655</v>
+        <v>3585</v>
       </c>
       <c r="D30" t="n">
-        <v>255</v>
+        <v>2245</v>
       </c>
       <c r="E30" t="n">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="F30" t="n">
-        <v>1150</v>
+        <v>4995</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
         <v>37</v>
       </c>
       <c r="C31" t="n">
-        <v>85</v>
+        <v>565270</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>400220</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>58820</v>
       </c>
       <c r="F31" t="n">
-        <v>185</v>
+        <v>699125</v>
       </c>
     </row>
     <row r="32">
@@ -1532,196 +1643,196 @@
         <v>38</v>
       </c>
       <c r="C32" t="n">
-        <v>48200</v>
+        <v>1025</v>
       </c>
       <c r="D32" t="n">
-        <v>16775</v>
+        <v>250</v>
       </c>
       <c r="E32" t="n">
-        <v>220</v>
+        <v>15</v>
       </c>
       <c r="F32" t="n">
-        <v>69835</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B33" t="s">
         <v>39</v>
       </c>
       <c r="C33" t="n">
-        <v>22295</v>
+        <v>870</v>
       </c>
       <c r="D33" t="n">
-        <v>6235</v>
+        <v>350</v>
       </c>
       <c r="E33" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="F33" t="n">
-        <v>28725</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B34" t="s">
         <v>40</v>
       </c>
       <c r="C34" t="n">
-        <v>1210</v>
+        <v>45</v>
       </c>
       <c r="D34" t="n">
-        <v>255</v>
+        <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F34" t="n">
-        <v>1760</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B35" t="s">
         <v>41</v>
       </c>
       <c r="C35" t="n">
-        <v>12630</v>
+        <v>19890</v>
       </c>
       <c r="D35" t="n">
-        <v>855</v>
+        <v>7205</v>
       </c>
       <c r="E35" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="F35" t="n">
-        <v>15750</v>
+        <v>27040</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
         <v>42</v>
       </c>
       <c r="C36" t="n">
-        <v>10700</v>
+        <v>525</v>
       </c>
       <c r="D36" t="n">
-        <v>7710</v>
+        <v>80</v>
       </c>
       <c r="E36" t="n">
-        <v>770</v>
+        <v>10</v>
       </c>
       <c r="F36" t="n">
-        <v>13060</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B37" t="s">
         <v>43</v>
       </c>
       <c r="C37" t="n">
-        <v>2120</v>
+        <v>5545</v>
       </c>
       <c r="D37" t="n">
-        <v>1130</v>
+        <v>3445</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F37" t="n">
-        <v>2475</v>
+        <v>7115</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B38" t="s">
         <v>44</v>
       </c>
       <c r="C38" t="n">
-        <v>1650</v>
+        <v>655</v>
       </c>
       <c r="D38" t="n">
-        <v>1020</v>
+        <v>255</v>
       </c>
       <c r="E38" t="n">
-        <v>165</v>
+        <v>15</v>
       </c>
       <c r="F38" t="n">
-        <v>2375</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B39" t="s">
         <v>45</v>
       </c>
       <c r="C39" t="n">
-        <v>99015</v>
+        <v>615</v>
       </c>
       <c r="D39" t="n">
-        <v>9565</v>
+        <v>280</v>
       </c>
       <c r="E39" t="n">
-        <v>1165</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>120870</v>
+        <v>590</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s">
         <v>46</v>
       </c>
       <c r="C40" t="n">
-        <v>1670</v>
+        <v>38580</v>
       </c>
       <c r="D40" t="n">
-        <v>410</v>
+        <v>23940</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>2935</v>
       </c>
       <c r="F40" t="n">
-        <v>3220</v>
+        <v>41685</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" t="s">
         <v>47</v>
       </c>
-      <c r="B41" t="s">
-        <v>48</v>
-      </c>
       <c r="C41" t="n">
-        <v>19460850</v>
+        <v>85</v>
       </c>
       <c r="D41" t="n">
-        <v>22162865</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>15265335</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>29748265</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42">
@@ -1729,119 +1840,119 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C42" t="n">
-        <v>5445</v>
+        <v>64050</v>
       </c>
       <c r="D42" t="n">
-        <v>975</v>
+        <v>37950</v>
       </c>
       <c r="E42" t="n">
-        <v>55</v>
+        <v>7800</v>
       </c>
       <c r="F42" t="n">
-        <v>6070</v>
+        <v>86115</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>1760</v>
+        <v>4985</v>
       </c>
       <c r="D43" t="n">
-        <v>405</v>
+        <v>2005</v>
       </c>
       <c r="E43" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F43" t="n">
-        <v>3000</v>
+        <v>16635</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C44" t="n">
-        <v>745</v>
+        <v>64110</v>
       </c>
       <c r="D44" t="n">
-        <v>195</v>
+        <v>24570</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="F44" t="n">
-        <v>1665</v>
+        <v>133045</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C45" t="n">
-        <v>15295</v>
+        <v>48200</v>
       </c>
       <c r="D45" t="n">
-        <v>2790</v>
+        <v>16775</v>
       </c>
       <c r="E45" t="n">
-        <v>105</v>
+        <v>220</v>
       </c>
       <c r="F45" t="n">
-        <v>17590</v>
+        <v>69835</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C46" t="n">
-        <v>7166700</v>
+        <v>365</v>
       </c>
       <c r="D46" t="n">
-        <v>6943800</v>
+        <v>180</v>
       </c>
       <c r="E46" t="n">
-        <v>3825215</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>10242945</v>
+        <v>480</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C47" t="n">
-        <v>2100</v>
+        <v>22295</v>
       </c>
       <c r="D47" t="n">
-        <v>185</v>
+        <v>6235</v>
       </c>
       <c r="E47" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="F47" t="n">
-        <v>2910</v>
+        <v>28725</v>
       </c>
     </row>
     <row r="48">
@@ -1849,39 +1960,39 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C48" t="n">
-        <v>2825</v>
+        <v>1210</v>
       </c>
       <c r="D48" t="n">
-        <v>825</v>
+        <v>255</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F48" t="n">
-        <v>4725</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C49" t="n">
-        <v>920</v>
+        <v>12630</v>
       </c>
       <c r="D49" t="n">
-        <v>250</v>
+        <v>855</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="F49" t="n">
-        <v>2250</v>
+        <v>15750</v>
       </c>
     </row>
     <row r="50">
@@ -1889,39 +2000,39 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C50" t="n">
-        <v>1295</v>
+        <v>10700</v>
       </c>
       <c r="D50" t="n">
-        <v>345</v>
+        <v>7710</v>
       </c>
       <c r="E50" t="n">
-        <v>25</v>
+        <v>770</v>
       </c>
       <c r="F50" t="n">
-        <v>2495</v>
+        <v>13060</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C51" t="n">
-        <v>1710</v>
+        <v>2120</v>
       </c>
       <c r="D51" t="n">
-        <v>1040</v>
+        <v>1130</v>
       </c>
       <c r="E51" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>2150</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="52">
@@ -1929,339 +2040,339 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C52" t="n">
-        <v>384040</v>
+        <v>1650</v>
       </c>
       <c r="D52" t="n">
-        <v>120335</v>
+        <v>1020</v>
       </c>
       <c r="E52" t="n">
-        <v>10065</v>
+        <v>165</v>
       </c>
       <c r="F52" t="n">
-        <v>502735</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C53" t="n">
-        <v>880</v>
+        <v>490</v>
       </c>
       <c r="D53" t="n">
-        <v>315</v>
+        <v>190</v>
       </c>
       <c r="E53" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>1305</v>
+        <v>790</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C54" t="n">
-        <v>106525</v>
+        <v>99015</v>
       </c>
       <c r="D54" t="n">
-        <v>44550</v>
+        <v>9565</v>
       </c>
       <c r="E54" t="n">
-        <v>1020</v>
+        <v>1165</v>
       </c>
       <c r="F54" t="n">
-        <v>150965</v>
+        <v>120870</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C55" t="n">
-        <v>108780</v>
+        <v>1670</v>
       </c>
       <c r="D55" t="n">
-        <v>64150</v>
+        <v>410</v>
       </c>
       <c r="E55" t="n">
-        <v>885</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>149045</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="B56" t="s">
         <v>63</v>
       </c>
       <c r="C56" t="n">
-        <v>255</v>
+        <v>19460850</v>
       </c>
       <c r="D56" t="n">
-        <v>50</v>
+        <v>22162865</v>
       </c>
       <c r="E56" t="n">
-        <v>10</v>
+        <v>15265335</v>
       </c>
       <c r="F56" t="n">
-        <v>360</v>
+        <v>29748265</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B57" t="s">
         <v>64</v>
       </c>
       <c r="C57" t="n">
-        <v>80</v>
+        <v>5445</v>
       </c>
       <c r="D57" t="n">
-        <v>10</v>
+        <v>975</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="F57" t="n">
-        <v>465</v>
+        <v>6070</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B58" t="s">
         <v>65</v>
       </c>
       <c r="C58" t="n">
-        <v>90</v>
+        <v>1760</v>
       </c>
       <c r="D58" t="n">
-        <v>20</v>
+        <v>405</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F58" t="n">
-        <v>175</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B59" t="s">
         <v>66</v>
       </c>
       <c r="C59" t="n">
-        <v>3030</v>
+        <v>745</v>
       </c>
       <c r="D59" t="n">
-        <v>1280</v>
+        <v>195</v>
       </c>
       <c r="E59" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>6855</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B60" t="s">
         <v>67</v>
       </c>
       <c r="C60" t="n">
-        <v>10910</v>
+        <v>15295</v>
       </c>
       <c r="D60" t="n">
-        <v>4085</v>
+        <v>2790</v>
       </c>
       <c r="E60" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="F60" t="n">
-        <v>12445</v>
+        <v>17590</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="B61" t="s">
         <v>68</v>
       </c>
       <c r="C61" t="n">
-        <v>480</v>
+        <v>7166700</v>
       </c>
       <c r="D61" t="n">
-        <v>50</v>
+        <v>6943800</v>
       </c>
       <c r="E61" t="n">
-        <v>20</v>
+        <v>3825215</v>
       </c>
       <c r="F61" t="n">
-        <v>1060</v>
+        <v>10242945</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B62" t="s">
         <v>69</v>
       </c>
       <c r="C62" t="n">
-        <v>1320</v>
+        <v>2100</v>
       </c>
       <c r="D62" t="n">
-        <v>735</v>
+        <v>185</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F62" t="n">
-        <v>1715</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B63" t="s">
         <v>70</v>
       </c>
       <c r="C63" t="n">
-        <v>19530</v>
+        <v>2825</v>
       </c>
       <c r="D63" t="n">
-        <v>8560</v>
+        <v>825</v>
       </c>
       <c r="E63" t="n">
-        <v>825</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>75020</v>
+        <v>4725</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B64" t="s">
         <v>71</v>
       </c>
       <c r="C64" t="n">
-        <v>100</v>
+        <v>920</v>
       </c>
       <c r="D64" t="n">
-        <v>5</v>
+        <v>250</v>
       </c>
       <c r="E64" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>125</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B65" t="s">
         <v>72</v>
       </c>
       <c r="C65" t="n">
-        <v>6880</v>
+        <v>1295</v>
       </c>
       <c r="D65" t="n">
-        <v>2210</v>
+        <v>345</v>
       </c>
       <c r="E65" t="n">
         <v>25</v>
       </c>
       <c r="F65" t="n">
-        <v>7925</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B66" t="s">
         <v>73</v>
       </c>
       <c r="C66" t="n">
-        <v>110645</v>
+        <v>1710</v>
       </c>
       <c r="D66" t="n">
-        <v>55510</v>
+        <v>1040</v>
       </c>
       <c r="E66" t="n">
-        <v>1405</v>
+        <v>25</v>
       </c>
       <c r="F66" t="n">
-        <v>433365</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B67" t="s">
         <v>74</v>
       </c>
       <c r="C67" t="n">
-        <v>61235</v>
+        <v>384040</v>
       </c>
       <c r="D67" t="n">
-        <v>19480</v>
+        <v>120335</v>
       </c>
       <c r="E67" t="n">
-        <v>440</v>
+        <v>10065</v>
       </c>
       <c r="F67" t="n">
-        <v>71285</v>
+        <v>502735</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B68" t="s">
         <v>75</v>
       </c>
       <c r="C68" t="n">
-        <v>1285</v>
+        <v>525</v>
       </c>
       <c r="D68" t="n">
-        <v>270</v>
+        <v>1630</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>725</v>
       </c>
       <c r="F68" t="n">
-        <v>1780</v>
+        <v>8705</v>
       </c>
     </row>
     <row r="69">
@@ -2272,76 +2383,76 @@
         <v>76</v>
       </c>
       <c r="C69" t="n">
-        <v>4235</v>
+        <v>880</v>
       </c>
       <c r="D69" t="n">
-        <v>1000</v>
+        <v>315</v>
       </c>
       <c r="E69" t="n">
         <v>10</v>
       </c>
       <c r="F69" t="n">
-        <v>8855</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B70" t="s">
         <v>77</v>
       </c>
       <c r="C70" t="n">
-        <v>26345</v>
+        <v>106525</v>
       </c>
       <c r="D70" t="n">
-        <v>9125</v>
+        <v>44550</v>
       </c>
       <c r="E70" t="n">
-        <v>110</v>
+        <v>1020</v>
       </c>
       <c r="F70" t="n">
-        <v>34530</v>
+        <v>150965</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B71" t="s">
         <v>78</v>
       </c>
       <c r="C71" t="n">
-        <v>1020</v>
+        <v>108780</v>
       </c>
       <c r="D71" t="n">
-        <v>165</v>
+        <v>64150</v>
       </c>
       <c r="E71" t="n">
-        <v>30</v>
+        <v>885</v>
       </c>
       <c r="F71" t="n">
-        <v>1975</v>
+        <v>149045</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B72" t="s">
         <v>79</v>
       </c>
       <c r="C72" t="n">
-        <v>35210</v>
+        <v>255</v>
       </c>
       <c r="D72" t="n">
-        <v>29230</v>
+        <v>50</v>
       </c>
       <c r="E72" t="n">
-        <v>8795</v>
+        <v>10</v>
       </c>
       <c r="F72" t="n">
-        <v>40620</v>
+        <v>360</v>
       </c>
     </row>
     <row r="73">
@@ -2352,16 +2463,16 @@
         <v>80</v>
       </c>
       <c r="C73" t="n">
-        <v>375635</v>
+        <v>80</v>
       </c>
       <c r="D73" t="n">
-        <v>115415</v>
+        <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>1705</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>574725</v>
+        <v>465</v>
       </c>
     </row>
     <row r="74">
@@ -2372,56 +2483,56 @@
         <v>81</v>
       </c>
       <c r="C74" t="n">
-        <v>43640</v>
+        <v>90</v>
       </c>
       <c r="D74" t="n">
-        <v>19785</v>
+        <v>20</v>
       </c>
       <c r="E74" t="n">
-        <v>3255</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>83095</v>
+        <v>175</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B75" t="s">
         <v>82</v>
       </c>
       <c r="C75" t="n">
-        <v>13150</v>
+        <v>3030</v>
       </c>
       <c r="D75" t="n">
-        <v>5490</v>
+        <v>1280</v>
       </c>
       <c r="E75" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F75" t="n">
-        <v>17120</v>
+        <v>6855</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B76" t="s">
         <v>83</v>
       </c>
       <c r="C76" t="n">
-        <v>3970</v>
+        <v>10910</v>
       </c>
       <c r="D76" t="n">
-        <v>1630</v>
+        <v>4085</v>
       </c>
       <c r="E76" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F76" t="n">
-        <v>8245</v>
+        <v>12445</v>
       </c>
     </row>
     <row r="77">
@@ -2432,56 +2543,56 @@
         <v>84</v>
       </c>
       <c r="C77" t="n">
-        <v>565</v>
+        <v>480</v>
       </c>
       <c r="D77" t="n">
-        <v>135</v>
+        <v>50</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F77" t="n">
-        <v>905</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B78" t="s">
         <v>85</v>
       </c>
       <c r="C78" t="n">
-        <v>180</v>
+        <v>1320</v>
       </c>
       <c r="D78" t="n">
-        <v>20</v>
+        <v>735</v>
       </c>
       <c r="E78" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>365</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B79" t="s">
         <v>86</v>
       </c>
       <c r="C79" t="n">
-        <v>20130</v>
+        <v>19530</v>
       </c>
       <c r="D79" t="n">
-        <v>10885</v>
+        <v>8560</v>
       </c>
       <c r="E79" t="n">
-        <v>475</v>
+        <v>825</v>
       </c>
       <c r="F79" t="n">
-        <v>27035</v>
+        <v>75020</v>
       </c>
     </row>
     <row r="80">
@@ -2492,176 +2603,176 @@
         <v>87</v>
       </c>
       <c r="C80" t="n">
-        <v>5250</v>
+        <v>100</v>
       </c>
       <c r="D80" t="n">
-        <v>1530</v>
+        <v>5</v>
       </c>
       <c r="E80" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F80" t="n">
-        <v>7860</v>
+        <v>125</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B81" t="s">
         <v>88</v>
       </c>
       <c r="C81" t="n">
-        <v>3330</v>
+        <v>6880</v>
       </c>
       <c r="D81" t="n">
-        <v>720</v>
+        <v>2210</v>
       </c>
       <c r="E81" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F81" t="n">
-        <v>6790</v>
+        <v>7925</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B82" t="s">
         <v>89</v>
       </c>
       <c r="C82" t="n">
-        <v>153425</v>
+        <v>110645</v>
       </c>
       <c r="D82" t="n">
-        <v>109705</v>
+        <v>55510</v>
       </c>
       <c r="E82" t="n">
-        <v>12150</v>
+        <v>1405</v>
       </c>
       <c r="F82" t="n">
-        <v>172750</v>
+        <v>433365</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B83" t="s">
         <v>90</v>
       </c>
       <c r="C83" t="n">
-        <v>11705</v>
+        <v>795</v>
       </c>
       <c r="D83" t="n">
-        <v>6580</v>
+        <v>335</v>
       </c>
       <c r="E83" t="n">
-        <v>185</v>
+        <v>10</v>
       </c>
       <c r="F83" t="n">
-        <v>15290</v>
+        <v>870</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B84" t="s">
         <v>91</v>
       </c>
       <c r="C84" t="n">
-        <v>110</v>
+        <v>61235</v>
       </c>
       <c r="D84" t="n">
-        <v>10</v>
+        <v>19480</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="F84" t="n">
-        <v>170</v>
+        <v>71285</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B85" t="s">
         <v>92</v>
       </c>
       <c r="C85" t="n">
-        <v>325</v>
+        <v>1285</v>
       </c>
       <c r="D85" t="n">
-        <v>25</v>
+        <v>270</v>
       </c>
       <c r="E85" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>605</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B86" t="s">
         <v>93</v>
       </c>
       <c r="C86" t="n">
-        <v>12670</v>
+        <v>4235</v>
       </c>
       <c r="D86" t="n">
-        <v>6175</v>
+        <v>1000</v>
       </c>
       <c r="E86" t="n">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="F86" t="n">
-        <v>17235</v>
+        <v>8855</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B87" t="s">
         <v>94</v>
       </c>
       <c r="C87" t="n">
-        <v>5450</v>
+        <v>26345</v>
       </c>
       <c r="D87" t="n">
-        <v>1255</v>
+        <v>9125</v>
       </c>
       <c r="E87" t="n">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="F87" t="n">
-        <v>6500</v>
+        <v>34530</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B88" t="s">
         <v>95</v>
       </c>
       <c r="C88" t="n">
-        <v>315</v>
+        <v>5185</v>
       </c>
       <c r="D88" t="n">
-        <v>25</v>
+        <v>2380</v>
       </c>
       <c r="E88" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F88" t="n">
-        <v>790</v>
+        <v>8870</v>
       </c>
     </row>
     <row r="89">
@@ -2672,16 +2783,16 @@
         <v>96</v>
       </c>
       <c r="C89" t="n">
-        <v>3805</v>
+        <v>1020</v>
       </c>
       <c r="D89" t="n">
-        <v>1045</v>
+        <v>165</v>
       </c>
       <c r="E89" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F89" t="n">
-        <v>17010</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="90">
@@ -2692,16 +2803,16 @@
         <v>97</v>
       </c>
       <c r="C90" t="n">
-        <v>7075</v>
+        <v>310</v>
       </c>
       <c r="D90" t="n">
-        <v>2015</v>
+        <v>90</v>
       </c>
       <c r="E90" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F90" t="n">
-        <v>8185</v>
+        <v>470</v>
       </c>
     </row>
     <row r="91">
@@ -2712,16 +2823,16 @@
         <v>98</v>
       </c>
       <c r="C91" t="n">
-        <v>16770</v>
+        <v>35210</v>
       </c>
       <c r="D91" t="n">
-        <v>6830</v>
+        <v>29230</v>
       </c>
       <c r="E91" t="n">
-        <v>95</v>
+        <v>8795</v>
       </c>
       <c r="F91" t="n">
-        <v>23075</v>
+        <v>40620</v>
       </c>
     </row>
     <row r="92">
@@ -2732,287 +2843,287 @@
         <v>99</v>
       </c>
       <c r="C92" t="n">
-        <v>1430</v>
+        <v>35</v>
       </c>
       <c r="D92" t="n">
-        <v>430</v>
+        <v>5</v>
       </c>
       <c r="E92" t="n">
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>2340</v>
+        <v>115</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B93" t="s">
         <v>100</v>
       </c>
       <c r="C93" t="n">
-        <v>12275</v>
+        <v>375635</v>
       </c>
       <c r="D93" t="n">
-        <v>3625</v>
+        <v>115415</v>
       </c>
       <c r="E93" t="n">
-        <v>140</v>
+        <v>1705</v>
       </c>
       <c r="F93" t="n">
-        <v>22470</v>
+        <v>574725</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B94" t="s">
         <v>101</v>
       </c>
       <c r="C94" t="n">
-        <v>28565</v>
+        <v>720</v>
       </c>
       <c r="D94" t="n">
-        <v>15440</v>
+        <v>175</v>
       </c>
       <c r="E94" t="n">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="F94" t="n">
-        <v>37810</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B95" t="s">
         <v>102</v>
       </c>
       <c r="C95" t="n">
-        <v>300</v>
+        <v>43640</v>
       </c>
       <c r="D95" t="n">
-        <v>55</v>
+        <v>19785</v>
       </c>
       <c r="E95" t="n">
-        <v>10</v>
+        <v>3255</v>
       </c>
       <c r="F95" t="n">
-        <v>760</v>
+        <v>83095</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B96" t="s">
         <v>103</v>
       </c>
       <c r="C96" t="n">
-        <v>5565</v>
+        <v>13150</v>
       </c>
       <c r="D96" t="n">
-        <v>1125</v>
+        <v>5490</v>
       </c>
       <c r="E96" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F96" t="n">
-        <v>7625</v>
+        <v>17120</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B97" t="s">
         <v>104</v>
       </c>
       <c r="C97" t="n">
-        <v>592040</v>
+        <v>3970</v>
       </c>
       <c r="D97" t="n">
-        <v>462890</v>
+        <v>1630</v>
       </c>
       <c r="E97" t="n">
-        <v>60090</v>
+        <v>10</v>
       </c>
       <c r="F97" t="n">
-        <v>814450</v>
+        <v>8245</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B98" t="s">
         <v>105</v>
       </c>
       <c r="C98" t="n">
-        <v>8295</v>
+        <v>4705</v>
       </c>
       <c r="D98" t="n">
-        <v>3780</v>
+        <v>3860</v>
       </c>
       <c r="E98" t="n">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="F98" t="n">
-        <v>15565</v>
+        <v>4895</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B99" t="s">
         <v>106</v>
       </c>
       <c r="C99" t="n">
-        <v>6690</v>
+        <v>565</v>
       </c>
       <c r="D99" t="n">
-        <v>3565</v>
+        <v>135</v>
       </c>
       <c r="E99" t="n">
-        <v>915</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>9025</v>
+        <v>905</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B100" t="s">
         <v>107</v>
       </c>
       <c r="C100" t="n">
-        <v>465</v>
+        <v>180</v>
       </c>
       <c r="D100" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E100" t="n">
         <v>10</v>
       </c>
       <c r="F100" t="n">
-        <v>1210</v>
+        <v>365</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B101" t="s">
         <v>108</v>
       </c>
       <c r="C101" t="n">
-        <v>1230</v>
+        <v>20130</v>
       </c>
       <c r="D101" t="n">
-        <v>345</v>
+        <v>10885</v>
       </c>
       <c r="E101" t="n">
-        <v>30</v>
+        <v>475</v>
       </c>
       <c r="F101" t="n">
-        <v>1045</v>
+        <v>27035</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B102" t="s">
         <v>109</v>
       </c>
       <c r="C102" t="n">
-        <v>31800</v>
+        <v>5250</v>
       </c>
       <c r="D102" t="n">
-        <v>13965</v>
+        <v>1530</v>
       </c>
       <c r="E102" t="n">
-        <v>565</v>
+        <v>25</v>
       </c>
       <c r="F102" t="n">
-        <v>42840</v>
+        <v>7860</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B103" t="s">
         <v>110</v>
       </c>
       <c r="C103" t="n">
-        <v>985</v>
+        <v>3330</v>
       </c>
       <c r="D103" t="n">
-        <v>255</v>
+        <v>720</v>
       </c>
       <c r="E103" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F103" t="n">
-        <v>2415</v>
+        <v>6790</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B104" t="s">
         <v>111</v>
       </c>
       <c r="C104" t="n">
-        <v>1575</v>
+        <v>153425</v>
       </c>
       <c r="D104" t="n">
-        <v>905</v>
+        <v>109705</v>
       </c>
       <c r="E104" t="n">
-        <v>10</v>
+        <v>12150</v>
       </c>
       <c r="F104" t="n">
-        <v>2095</v>
+        <v>172750</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B105" t="s">
         <v>112</v>
       </c>
       <c r="C105" t="n">
-        <v>10235</v>
+        <v>11705</v>
       </c>
       <c r="D105" t="n">
-        <v>8585</v>
+        <v>6580</v>
       </c>
       <c r="E105" t="n">
-        <v>2055</v>
+        <v>185</v>
       </c>
       <c r="F105" t="n">
-        <v>11445</v>
+        <v>15290</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B106" t="s">
         <v>113</v>
       </c>
       <c r="C106" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D106" t="n">
         <v>10</v>
@@ -3021,307 +3132,307 @@
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>195</v>
+        <v>170</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B107" t="s">
         <v>114</v>
       </c>
       <c r="C107" t="n">
-        <v>1205</v>
+        <v>325</v>
       </c>
       <c r="D107" t="n">
-        <v>1195</v>
+        <v>25</v>
       </c>
       <c r="E107" t="n">
-        <v>370</v>
+        <v>15</v>
       </c>
       <c r="F107" t="n">
-        <v>1465</v>
+        <v>605</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B108" t="s">
         <v>115</v>
       </c>
       <c r="C108" t="n">
-        <v>18275</v>
+        <v>12670</v>
       </c>
       <c r="D108" t="n">
-        <v>13375</v>
+        <v>6175</v>
       </c>
       <c r="E108" t="n">
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="F108" t="n">
-        <v>21385</v>
+        <v>17235</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B109" t="s">
         <v>116</v>
       </c>
       <c r="C109" t="n">
-        <v>400</v>
+        <v>5450</v>
       </c>
       <c r="D109" t="n">
-        <v>75</v>
+        <v>1255</v>
       </c>
       <c r="E109" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="F109" t="n">
-        <v>1055</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B110" t="s">
         <v>117</v>
       </c>
       <c r="C110" t="n">
-        <v>765</v>
+        <v>315</v>
       </c>
       <c r="D110" t="n">
-        <v>340</v>
+        <v>25</v>
       </c>
       <c r="E110" t="n">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="F110" t="n">
-        <v>1005</v>
+        <v>790</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B111" t="s">
         <v>118</v>
       </c>
       <c r="C111" t="n">
-        <v>315</v>
+        <v>3805</v>
       </c>
       <c r="D111" t="n">
-        <v>110</v>
+        <v>1045</v>
       </c>
       <c r="E111" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="F111" t="n">
-        <v>550</v>
+        <v>17010</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B112" t="s">
         <v>119</v>
       </c>
       <c r="C112" t="n">
-        <v>220</v>
+        <v>7075</v>
       </c>
       <c r="D112" t="n">
-        <v>30</v>
+        <v>2015</v>
       </c>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F112" t="n">
-        <v>280</v>
+        <v>8185</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B113" t="s">
         <v>120</v>
       </c>
       <c r="C113" t="n">
-        <v>4615</v>
+        <v>16770</v>
       </c>
       <c r="D113" t="n">
-        <v>350</v>
+        <v>6830</v>
       </c>
       <c r="E113" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="F113" t="n">
-        <v>8120</v>
+        <v>23075</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B114" t="s">
         <v>121</v>
       </c>
       <c r="C114" t="n">
-        <v>280</v>
+        <v>1430</v>
       </c>
       <c r="D114" t="n">
-        <v>30</v>
+        <v>430</v>
       </c>
       <c r="E114" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>560</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B115" t="s">
         <v>122</v>
       </c>
       <c r="C115" t="n">
-        <v>12855</v>
+        <v>12275</v>
       </c>
       <c r="D115" t="n">
-        <v>7905</v>
+        <v>3625</v>
       </c>
       <c r="E115" t="n">
-        <v>1080</v>
+        <v>140</v>
       </c>
       <c r="F115" t="n">
-        <v>15605</v>
+        <v>22470</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B116" t="s">
         <v>123</v>
       </c>
       <c r="C116" t="n">
-        <v>17885</v>
+        <v>28565</v>
       </c>
       <c r="D116" t="n">
-        <v>6175</v>
+        <v>15440</v>
       </c>
       <c r="E116" t="n">
-        <v>765</v>
+        <v>95</v>
       </c>
       <c r="F116" t="n">
-        <v>28580</v>
+        <v>37810</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B117" t="s">
         <v>124</v>
       </c>
       <c r="C117" t="n">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="D117" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="E117" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F117" t="n">
-        <v>820</v>
+        <v>760</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B118" t="s">
         <v>125</v>
       </c>
       <c r="C118" t="n">
-        <v>60</v>
+        <v>5565</v>
       </c>
       <c r="D118" t="n">
-        <v>15</v>
+        <v>1125</v>
       </c>
       <c r="E118" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F118" t="n">
-        <v>185</v>
+        <v>7625</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B119" t="s">
         <v>126</v>
       </c>
       <c r="C119" t="n">
-        <v>1055</v>
+        <v>592040</v>
       </c>
       <c r="D119" t="n">
-        <v>475</v>
+        <v>462890</v>
       </c>
       <c r="E119" t="n">
-        <v>0</v>
+        <v>60090</v>
       </c>
       <c r="F119" t="n">
-        <v>1530</v>
+        <v>814450</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B120" t="s">
         <v>127</v>
       </c>
       <c r="C120" t="n">
-        <v>4960</v>
+        <v>8295</v>
       </c>
       <c r="D120" t="n">
-        <v>3410</v>
+        <v>3780</v>
       </c>
       <c r="E120" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F120" t="n">
-        <v>6245</v>
+        <v>15565</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B121" t="s">
         <v>128</v>
       </c>
       <c r="C121" t="n">
-        <v>150</v>
+        <v>6690</v>
       </c>
       <c r="D121" t="n">
-        <v>75</v>
+        <v>3565</v>
       </c>
       <c r="E121" t="n">
-        <v>0</v>
+        <v>915</v>
       </c>
       <c r="F121" t="n">
-        <v>205</v>
+        <v>9025</v>
       </c>
     </row>
     <row r="122">
@@ -3332,56 +3443,56 @@
         <v>129</v>
       </c>
       <c r="C122" t="n">
-        <v>4045</v>
+        <v>465</v>
       </c>
       <c r="D122" t="n">
-        <v>1200</v>
+        <v>80</v>
       </c>
       <c r="E122" t="n">
         <v>10</v>
       </c>
       <c r="F122" t="n">
-        <v>5425</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B123" t="s">
         <v>130</v>
       </c>
       <c r="C123" t="n">
-        <v>1390</v>
+        <v>1230</v>
       </c>
       <c r="D123" t="n">
-        <v>240</v>
+        <v>345</v>
       </c>
       <c r="E123" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F123" t="n">
-        <v>1800</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B124" t="s">
         <v>131</v>
       </c>
       <c r="C124" t="n">
-        <v>16905</v>
+        <v>31800</v>
       </c>
       <c r="D124" t="n">
-        <v>10590</v>
+        <v>13965</v>
       </c>
       <c r="E124" t="n">
-        <v>50</v>
+        <v>565</v>
       </c>
       <c r="F124" t="n">
-        <v>23180</v>
+        <v>42840</v>
       </c>
     </row>
     <row r="125">
@@ -3392,36 +3503,36 @@
         <v>132</v>
       </c>
       <c r="C125" t="n">
-        <v>214200</v>
+        <v>985</v>
       </c>
       <c r="D125" t="n">
-        <v>143025</v>
+        <v>255</v>
       </c>
       <c r="E125" t="n">
-        <v>4580</v>
+        <v>30</v>
       </c>
       <c r="F125" t="n">
-        <v>252325</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B126" t="s">
         <v>133</v>
       </c>
       <c r="C126" t="n">
-        <v>3065</v>
+        <v>1575</v>
       </c>
       <c r="D126" t="n">
-        <v>1345</v>
+        <v>905</v>
       </c>
       <c r="E126" t="n">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="F126" t="n">
-        <v>5905</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="127">
@@ -3432,16 +3543,16 @@
         <v>134</v>
       </c>
       <c r="C127" t="n">
-        <v>181710</v>
+        <v>10235</v>
       </c>
       <c r="D127" t="n">
-        <v>74780</v>
+        <v>8585</v>
       </c>
       <c r="E127" t="n">
-        <v>2495</v>
+        <v>2055</v>
       </c>
       <c r="F127" t="n">
-        <v>214965</v>
+        <v>11445</v>
       </c>
     </row>
     <row r="128">
@@ -3452,16 +3563,16 @@
         <v>135</v>
       </c>
       <c r="C128" t="n">
-        <v>221535</v>
+        <v>105</v>
       </c>
       <c r="D128" t="n">
-        <v>98710</v>
+        <v>10</v>
       </c>
       <c r="E128" t="n">
-        <v>7485</v>
+        <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>295955</v>
+        <v>195</v>
       </c>
     </row>
     <row r="129">
@@ -3472,76 +3583,76 @@
         <v>136</v>
       </c>
       <c r="C129" t="n">
-        <v>501680</v>
+        <v>1205</v>
       </c>
       <c r="D129" t="n">
-        <v>349140</v>
+        <v>1195</v>
       </c>
       <c r="E129" t="n">
-        <v>27865</v>
+        <v>370</v>
       </c>
       <c r="F129" t="n">
-        <v>668240</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B130" t="s">
         <v>137</v>
       </c>
       <c r="C130" t="n">
-        <v>695</v>
+        <v>18275</v>
       </c>
       <c r="D130" t="n">
-        <v>730</v>
+        <v>13375</v>
       </c>
       <c r="E130" t="n">
-        <v>130</v>
+        <v>195</v>
       </c>
       <c r="F130" t="n">
-        <v>4665</v>
+        <v>21385</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B131" t="s">
         <v>138</v>
       </c>
       <c r="C131" t="n">
-        <v>96660</v>
+        <v>19135</v>
       </c>
       <c r="D131" t="n">
-        <v>53325</v>
+        <v>4010</v>
       </c>
       <c r="E131" t="n">
-        <v>745</v>
+        <v>30</v>
       </c>
       <c r="F131" t="n">
-        <v>115050</v>
+        <v>40760</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B132" t="s">
         <v>139</v>
       </c>
       <c r="C132" t="n">
-        <v>5850</v>
+        <v>3750</v>
       </c>
       <c r="D132" t="n">
-        <v>2110</v>
+        <v>1520</v>
       </c>
       <c r="E132" t="n">
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>8590</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="133">
@@ -3552,36 +3663,36 @@
         <v>140</v>
       </c>
       <c r="C133" t="n">
-        <v>188255</v>
+        <v>400</v>
       </c>
       <c r="D133" t="n">
-        <v>116595</v>
+        <v>75</v>
       </c>
       <c r="E133" t="n">
-        <v>4855</v>
+        <v>10</v>
       </c>
       <c r="F133" t="n">
-        <v>269645</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B134" t="s">
         <v>141</v>
       </c>
       <c r="C134" t="n">
-        <v>80</v>
+        <v>7321060</v>
       </c>
       <c r="D134" t="n">
-        <v>10</v>
+        <v>3997195</v>
       </c>
       <c r="E134" t="n">
-        <v>0</v>
+        <v>275435</v>
       </c>
       <c r="F134" t="n">
-        <v>145</v>
+        <v>9369280</v>
       </c>
     </row>
     <row r="135">
@@ -3592,36 +3703,36 @@
         <v>142</v>
       </c>
       <c r="C135" t="n">
-        <v>1090</v>
+        <v>765</v>
       </c>
       <c r="D135" t="n">
-        <v>190</v>
+        <v>340</v>
       </c>
       <c r="E135" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="F135" t="n">
-        <v>3980</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B136" t="s">
         <v>143</v>
       </c>
       <c r="C136" t="n">
-        <v>85</v>
+        <v>315</v>
       </c>
       <c r="D136" t="n">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="E136" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F136" t="n">
-        <v>185</v>
+        <v>550</v>
       </c>
     </row>
     <row r="137">
@@ -3632,36 +3743,36 @@
         <v>144</v>
       </c>
       <c r="C137" t="n">
-        <v>57350</v>
+        <v>220</v>
       </c>
       <c r="D137" t="n">
-        <v>31750</v>
+        <v>30</v>
       </c>
       <c r="E137" t="n">
-        <v>530</v>
+        <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>73780</v>
+        <v>280</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B138" t="s">
         <v>145</v>
       </c>
       <c r="C138" t="n">
-        <v>9550</v>
+        <v>4615</v>
       </c>
       <c r="D138" t="n">
-        <v>3890</v>
+        <v>350</v>
       </c>
       <c r="E138" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F138" t="n">
-        <v>11275</v>
+        <v>8120</v>
       </c>
     </row>
     <row r="139">
@@ -3672,36 +3783,36 @@
         <v>146</v>
       </c>
       <c r="C139" t="n">
-        <v>3185</v>
+        <v>280</v>
       </c>
       <c r="D139" t="n">
-        <v>1035</v>
+        <v>30</v>
       </c>
       <c r="E139" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F139" t="n">
-        <v>5430</v>
+        <v>560</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B140" t="s">
         <v>147</v>
       </c>
       <c r="C140" t="n">
-        <v>445</v>
+        <v>12855</v>
       </c>
       <c r="D140" t="n">
-        <v>50</v>
+        <v>7905</v>
       </c>
       <c r="E140" t="n">
-        <v>35</v>
+        <v>1080</v>
       </c>
       <c r="F140" t="n">
-        <v>1305</v>
+        <v>15605</v>
       </c>
     </row>
     <row r="141">
@@ -3712,16 +3823,16 @@
         <v>148</v>
       </c>
       <c r="C141" t="n">
-        <v>11860</v>
+        <v>17885</v>
       </c>
       <c r="D141" t="n">
-        <v>4975</v>
+        <v>6175</v>
       </c>
       <c r="E141" t="n">
-        <v>35</v>
+        <v>765</v>
       </c>
       <c r="F141" t="n">
-        <v>20260</v>
+        <v>28580</v>
       </c>
     </row>
     <row r="142">
@@ -3732,16 +3843,16 @@
         <v>149</v>
       </c>
       <c r="C142" t="n">
-        <v>16335</v>
+        <v>275</v>
       </c>
       <c r="D142" t="n">
-        <v>7790</v>
+        <v>80</v>
       </c>
       <c r="E142" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F142" t="n">
-        <v>27825</v>
+        <v>820</v>
       </c>
     </row>
     <row r="143">
@@ -3752,336 +3863,336 @@
         <v>150</v>
       </c>
       <c r="C143" t="n">
-        <v>17580</v>
+        <v>60</v>
       </c>
       <c r="D143" t="n">
-        <v>5610</v>
+        <v>15</v>
       </c>
       <c r="E143" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>21470</v>
+        <v>185</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B144" t="s">
         <v>151</v>
       </c>
       <c r="C144" t="n">
-        <v>9785</v>
+        <v>1055</v>
       </c>
       <c r="D144" t="n">
-        <v>2055</v>
+        <v>475</v>
       </c>
       <c r="E144" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>11490</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B145" t="s">
         <v>152</v>
       </c>
       <c r="C145" t="n">
-        <v>36755</v>
+        <v>4960</v>
       </c>
       <c r="D145" t="n">
-        <v>22895</v>
+        <v>3410</v>
       </c>
       <c r="E145" t="n">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="F145" t="n">
-        <v>49660</v>
+        <v>6245</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B146" t="s">
         <v>153</v>
       </c>
       <c r="C146" t="n">
-        <v>945</v>
+        <v>3685</v>
       </c>
       <c r="D146" t="n">
-        <v>370</v>
+        <v>1110</v>
       </c>
       <c r="E146" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="F146" t="n">
-        <v>1365</v>
+        <v>9730</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B147" t="s">
         <v>154</v>
       </c>
       <c r="C147" t="n">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="D147" t="n">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="E147" t="n">
         <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>40</v>
+        <v>205</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B148" t="s">
         <v>155</v>
       </c>
       <c r="C148" t="n">
-        <v>70</v>
+        <v>4045</v>
       </c>
       <c r="D148" t="n">
-        <v>5</v>
+        <v>1200</v>
       </c>
       <c r="E148" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F148" t="n">
-        <v>145</v>
+        <v>5425</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B149" t="s">
         <v>156</v>
       </c>
       <c r="C149" t="n">
-        <v>458850</v>
+        <v>1390</v>
       </c>
       <c r="D149" t="n">
-        <v>263505</v>
+        <v>240</v>
       </c>
       <c r="E149" t="n">
-        <v>13030</v>
+        <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>995260</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B150" t="s">
         <v>157</v>
       </c>
       <c r="C150" t="n">
-        <v>40</v>
+        <v>16905</v>
       </c>
       <c r="D150" t="n">
-        <v>5</v>
+        <v>10590</v>
       </c>
       <c r="E150" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F150" t="n">
-        <v>285</v>
+        <v>23180</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B151" t="s">
         <v>158</v>
       </c>
       <c r="C151" t="n">
-        <v>3025</v>
+        <v>214200</v>
       </c>
       <c r="D151" t="n">
-        <v>1950</v>
+        <v>143025</v>
       </c>
       <c r="E151" t="n">
-        <v>240</v>
+        <v>4580</v>
       </c>
       <c r="F151" t="n">
-        <v>3675</v>
+        <v>252325</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B152" t="s">
         <v>159</v>
       </c>
       <c r="C152" t="n">
-        <v>80</v>
+        <v>3065</v>
       </c>
       <c r="D152" t="n">
-        <v>25</v>
+        <v>1345</v>
       </c>
       <c r="E152" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="F152" t="n">
-        <v>365</v>
+        <v>5905</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B153" t="s">
         <v>160</v>
       </c>
       <c r="C153" t="n">
-        <v>13370</v>
+        <v>181710</v>
       </c>
       <c r="D153" t="n">
-        <v>5370</v>
+        <v>74780</v>
       </c>
       <c r="E153" t="n">
-        <v>80</v>
+        <v>2495</v>
       </c>
       <c r="F153" t="n">
-        <v>38685</v>
+        <v>214965</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B154" t="s">
         <v>161</v>
       </c>
       <c r="C154" t="n">
-        <v>1440</v>
+        <v>221535</v>
       </c>
       <c r="D154" t="n">
-        <v>330</v>
+        <v>98710</v>
       </c>
       <c r="E154" t="n">
-        <v>10</v>
+        <v>7485</v>
       </c>
       <c r="F154" t="n">
-        <v>2350</v>
+        <v>295955</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B155" t="s">
         <v>162</v>
       </c>
       <c r="C155" t="n">
-        <v>6840</v>
+        <v>501680</v>
       </c>
       <c r="D155" t="n">
-        <v>1050</v>
+        <v>349140</v>
       </c>
       <c r="E155" t="n">
-        <v>125</v>
+        <v>27865</v>
       </c>
       <c r="F155" t="n">
-        <v>14140</v>
+        <v>668240</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B156" t="s">
         <v>163</v>
       </c>
       <c r="C156" t="n">
-        <v>431385</v>
+        <v>695</v>
       </c>
       <c r="D156" t="n">
-        <v>213790</v>
+        <v>730</v>
       </c>
       <c r="E156" t="n">
-        <v>3450</v>
+        <v>130</v>
       </c>
       <c r="F156" t="n">
-        <v>612735</v>
+        <v>4665</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B157" t="s">
         <v>164</v>
       </c>
       <c r="C157" t="n">
-        <v>95</v>
+        <v>96660</v>
       </c>
       <c r="D157" t="n">
-        <v>5</v>
+        <v>53325</v>
       </c>
       <c r="E157" t="n">
-        <v>0</v>
+        <v>745</v>
       </c>
       <c r="F157" t="n">
-        <v>265</v>
+        <v>115050</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B158" t="s">
         <v>165</v>
       </c>
       <c r="C158" t="n">
-        <v>140720</v>
+        <v>5850</v>
       </c>
       <c r="D158" t="n">
-        <v>96955</v>
+        <v>2110</v>
       </c>
       <c r="E158" t="n">
-        <v>2085</v>
+        <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>189860</v>
+        <v>8590</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B159" t="s">
         <v>166</v>
       </c>
       <c r="C159" t="n">
-        <v>15660</v>
+        <v>188255</v>
       </c>
       <c r="D159" t="n">
-        <v>8280</v>
+        <v>116595</v>
       </c>
       <c r="E159" t="n">
-        <v>40</v>
+        <v>4855</v>
       </c>
       <c r="F159" t="n">
-        <v>23165</v>
+        <v>269645</v>
       </c>
     </row>
     <row r="160">
@@ -4092,56 +4203,56 @@
         <v>167</v>
       </c>
       <c r="C160" t="n">
-        <v>9255</v>
+        <v>260</v>
       </c>
       <c r="D160" t="n">
-        <v>3365</v>
+        <v>25</v>
       </c>
       <c r="E160" t="n">
-        <v>525</v>
+        <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>15395</v>
+        <v>560</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B161" t="s">
         <v>168</v>
       </c>
       <c r="C161" t="n">
-        <v>335</v>
+        <v>80</v>
       </c>
       <c r="D161" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E161" t="n">
         <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>450</v>
+        <v>145</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B162" t="s">
         <v>169</v>
       </c>
       <c r="C162" t="n">
-        <v>6160</v>
+        <v>1090</v>
       </c>
       <c r="D162" t="n">
-        <v>4590</v>
+        <v>190</v>
       </c>
       <c r="E162" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F162" t="n">
-        <v>7050</v>
+        <v>3980</v>
       </c>
     </row>
     <row r="163">
@@ -4152,96 +4263,96 @@
         <v>170</v>
       </c>
       <c r="C163" t="n">
-        <v>16645</v>
+        <v>85</v>
       </c>
       <c r="D163" t="n">
-        <v>10205</v>
+        <v>15</v>
       </c>
       <c r="E163" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>21340</v>
+        <v>185</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B164" t="s">
         <v>171</v>
       </c>
       <c r="C164" t="n">
-        <v>95</v>
+        <v>2150</v>
       </c>
       <c r="D164" t="n">
-        <v>0</v>
+        <v>1205</v>
       </c>
       <c r="E164" t="n">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="F164" t="n">
-        <v>260</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B165" t="s">
         <v>172</v>
       </c>
       <c r="C165" t="n">
-        <v>200</v>
+        <v>57350</v>
       </c>
       <c r="D165" t="n">
-        <v>30</v>
+        <v>31750</v>
       </c>
       <c r="E165" t="n">
-        <v>10</v>
+        <v>530</v>
       </c>
       <c r="F165" t="n">
-        <v>410</v>
+        <v>73780</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B166" t="s">
         <v>173</v>
       </c>
       <c r="C166" t="n">
-        <v>32815</v>
+        <v>9550</v>
       </c>
       <c r="D166" t="n">
-        <v>18955</v>
+        <v>3890</v>
       </c>
       <c r="E166" t="n">
-        <v>690</v>
+        <v>30</v>
       </c>
       <c r="F166" t="n">
-        <v>50770</v>
+        <v>11275</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B167" t="s">
         <v>174</v>
       </c>
       <c r="C167" t="n">
-        <v>102485</v>
+        <v>3185</v>
       </c>
       <c r="D167" t="n">
-        <v>28250</v>
+        <v>1035</v>
       </c>
       <c r="E167" t="n">
-        <v>1210</v>
+        <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>132115</v>
+        <v>5430</v>
       </c>
     </row>
     <row r="168">
@@ -4252,76 +4363,76 @@
         <v>175</v>
       </c>
       <c r="C168" t="n">
-        <v>210815</v>
+        <v>445</v>
       </c>
       <c r="D168" t="n">
-        <v>128785</v>
+        <v>50</v>
       </c>
       <c r="E168" t="n">
-        <v>1495</v>
+        <v>35</v>
       </c>
       <c r="F168" t="n">
-        <v>322220</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B169" t="s">
         <v>176</v>
       </c>
       <c r="C169" t="n">
-        <v>1035</v>
+        <v>4125</v>
       </c>
       <c r="D169" t="n">
-        <v>610</v>
+        <v>6690</v>
       </c>
       <c r="E169" t="n">
-        <v>20</v>
+        <v>645</v>
       </c>
       <c r="F169" t="n">
-        <v>1390</v>
+        <v>22280</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B170" t="s">
         <v>177</v>
       </c>
       <c r="C170" t="n">
-        <v>1720</v>
+        <v>11860</v>
       </c>
       <c r="D170" t="n">
-        <v>995</v>
+        <v>4975</v>
       </c>
       <c r="E170" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="F170" t="n">
-        <v>2465</v>
+        <v>20260</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B171" t="s">
         <v>178</v>
       </c>
       <c r="C171" t="n">
-        <v>156430</v>
+        <v>16335</v>
       </c>
       <c r="D171" t="n">
-        <v>104245</v>
+        <v>7790</v>
       </c>
       <c r="E171" t="n">
-        <v>8075</v>
+        <v>40</v>
       </c>
       <c r="F171" t="n">
-        <v>198895</v>
+        <v>27825</v>
       </c>
     </row>
     <row r="172">
@@ -4332,16 +4443,16 @@
         <v>179</v>
       </c>
       <c r="C172" t="n">
-        <v>3895</v>
+        <v>55</v>
       </c>
       <c r="D172" t="n">
-        <v>355</v>
+        <v>20</v>
       </c>
       <c r="E172" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>4400</v>
+        <v>140</v>
       </c>
     </row>
     <row r="173">
@@ -4352,96 +4463,96 @@
         <v>180</v>
       </c>
       <c r="C173" t="n">
-        <v>1110</v>
+        <v>280</v>
       </c>
       <c r="D173" t="n">
-        <v>310</v>
+        <v>105</v>
       </c>
       <c r="E173" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F173" t="n">
-        <v>1395</v>
+        <v>675</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B174" t="s">
         <v>181</v>
       </c>
       <c r="C174" t="n">
-        <v>1075</v>
+        <v>2420</v>
       </c>
       <c r="D174" t="n">
-        <v>95</v>
+        <v>670</v>
       </c>
       <c r="E174" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F174" t="n">
-        <v>1695</v>
+        <v>2995</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B175" t="s">
         <v>182</v>
       </c>
       <c r="C175" t="n">
-        <v>3990</v>
+        <v>17580</v>
       </c>
       <c r="D175" t="n">
-        <v>1385</v>
+        <v>5610</v>
       </c>
       <c r="E175" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F175" t="n">
-        <v>8240</v>
+        <v>21470</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B176" t="s">
         <v>183</v>
       </c>
       <c r="C176" t="n">
-        <v>1840</v>
+        <v>9785</v>
       </c>
       <c r="D176" t="n">
-        <v>800</v>
+        <v>2055</v>
       </c>
       <c r="E176" t="n">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="F176" t="n">
-        <v>2665</v>
+        <v>11490</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B177" t="s">
         <v>184</v>
       </c>
       <c r="C177" t="n">
-        <v>12915</v>
+        <v>36755</v>
       </c>
       <c r="D177" t="n">
-        <v>7650</v>
+        <v>22895</v>
       </c>
       <c r="E177" t="n">
-        <v>105</v>
+        <v>220</v>
       </c>
       <c r="F177" t="n">
-        <v>16530</v>
+        <v>49660</v>
       </c>
     </row>
     <row r="178">
@@ -4452,16 +4563,16 @@
         <v>185</v>
       </c>
       <c r="C178" t="n">
-        <v>13555</v>
+        <v>945</v>
       </c>
       <c r="D178" t="n">
-        <v>7085</v>
+        <v>370</v>
       </c>
       <c r="E178" t="n">
-        <v>895</v>
+        <v>35</v>
       </c>
       <c r="F178" t="n">
-        <v>20985</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="179">
@@ -4472,15 +4583,755 @@
         <v>186</v>
       </c>
       <c r="C179" t="n">
+        <v>45</v>
+      </c>
+      <c r="D179" t="n">
+        <v>15</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0</v>
+      </c>
+      <c r="F179" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>6</v>
+      </c>
+      <c r="B180" t="s">
+        <v>187</v>
+      </c>
+      <c r="C180" t="n">
+        <v>70</v>
+      </c>
+      <c r="D180" t="n">
+        <v>5</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0</v>
+      </c>
+      <c r="F180" t="n">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>8</v>
+      </c>
+      <c r="B181" t="s">
+        <v>188</v>
+      </c>
+      <c r="C181" t="n">
+        <v>458850</v>
+      </c>
+      <c r="D181" t="n">
+        <v>263505</v>
+      </c>
+      <c r="E181" t="n">
+        <v>13030</v>
+      </c>
+      <c r="F181" t="n">
+        <v>995260</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>6</v>
+      </c>
+      <c r="B182" t="s">
+        <v>189</v>
+      </c>
+      <c r="C182" t="n">
+        <v>40</v>
+      </c>
+      <c r="D182" t="n">
+        <v>5</v>
+      </c>
+      <c r="E182" t="n">
+        <v>10</v>
+      </c>
+      <c r="F182" t="n">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>6</v>
+      </c>
+      <c r="B183" t="s">
+        <v>190</v>
+      </c>
+      <c r="C183" t="n">
+        <v>3025</v>
+      </c>
+      <c r="D183" t="n">
+        <v>1950</v>
+      </c>
+      <c r="E183" t="n">
+        <v>240</v>
+      </c>
+      <c r="F183" t="n">
+        <v>3675</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>6</v>
+      </c>
+      <c r="B184" t="s">
+        <v>191</v>
+      </c>
+      <c r="C184" t="n">
+        <v>80</v>
+      </c>
+      <c r="D184" t="n">
+        <v>25</v>
+      </c>
+      <c r="E184" t="n">
+        <v>15</v>
+      </c>
+      <c r="F184" t="n">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>8</v>
+      </c>
+      <c r="B185" t="s">
+        <v>192</v>
+      </c>
+      <c r="C185" t="n">
+        <v>13370</v>
+      </c>
+      <c r="D185" t="n">
+        <v>5370</v>
+      </c>
+      <c r="E185" t="n">
+        <v>80</v>
+      </c>
+      <c r="F185" t="n">
+        <v>38685</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>6</v>
+      </c>
+      <c r="B186" t="s">
+        <v>193</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1440</v>
+      </c>
+      <c r="D186" t="n">
+        <v>330</v>
+      </c>
+      <c r="E186" t="n">
+        <v>10</v>
+      </c>
+      <c r="F186" t="n">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>8</v>
+      </c>
+      <c r="B187" t="s">
+        <v>194</v>
+      </c>
+      <c r="C187" t="n">
+        <v>6840</v>
+      </c>
+      <c r="D187" t="n">
+        <v>1050</v>
+      </c>
+      <c r="E187" t="n">
+        <v>125</v>
+      </c>
+      <c r="F187" t="n">
+        <v>14140</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>8</v>
+      </c>
+      <c r="B188" t="s">
+        <v>195</v>
+      </c>
+      <c r="C188" t="n">
+        <v>431385</v>
+      </c>
+      <c r="D188" t="n">
+        <v>213790</v>
+      </c>
+      <c r="E188" t="n">
+        <v>3450</v>
+      </c>
+      <c r="F188" t="n">
+        <v>612735</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>6</v>
+      </c>
+      <c r="B189" t="s">
+        <v>196</v>
+      </c>
+      <c r="C189" t="n">
+        <v>95</v>
+      </c>
+      <c r="D189" t="n">
+        <v>5</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0</v>
+      </c>
+      <c r="F189" t="n">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>8</v>
+      </c>
+      <c r="B190" t="s">
+        <v>197</v>
+      </c>
+      <c r="C190" t="n">
+        <v>85</v>
+      </c>
+      <c r="D190" t="n">
+        <v>30</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0</v>
+      </c>
+      <c r="F190" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>8</v>
+      </c>
+      <c r="B191" t="s">
+        <v>198</v>
+      </c>
+      <c r="C191" t="n">
+        <v>140720</v>
+      </c>
+      <c r="D191" t="n">
+        <v>96955</v>
+      </c>
+      <c r="E191" t="n">
+        <v>2085</v>
+      </c>
+      <c r="F191" t="n">
+        <v>189860</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>8</v>
+      </c>
+      <c r="B192" t="s">
+        <v>199</v>
+      </c>
+      <c r="C192" t="n">
+        <v>15660</v>
+      </c>
+      <c r="D192" t="n">
+        <v>8280</v>
+      </c>
+      <c r="E192" t="n">
+        <v>40</v>
+      </c>
+      <c r="F192" t="n">
+        <v>23165</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>8</v>
+      </c>
+      <c r="B193" t="s">
+        <v>200</v>
+      </c>
+      <c r="C193" t="n">
+        <v>9255</v>
+      </c>
+      <c r="D193" t="n">
+        <v>3365</v>
+      </c>
+      <c r="E193" t="n">
+        <v>525</v>
+      </c>
+      <c r="F193" t="n">
+        <v>15395</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>6</v>
+      </c>
+      <c r="B194" t="s">
+        <v>201</v>
+      </c>
+      <c r="C194" t="n">
+        <v>335</v>
+      </c>
+      <c r="D194" t="n">
+        <v>20</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0</v>
+      </c>
+      <c r="F194" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>8</v>
+      </c>
+      <c r="B195" t="s">
+        <v>202</v>
+      </c>
+      <c r="C195" t="n">
+        <v>6160</v>
+      </c>
+      <c r="D195" t="n">
+        <v>4590</v>
+      </c>
+      <c r="E195" t="n">
+        <v>50</v>
+      </c>
+      <c r="F195" t="n">
+        <v>7050</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>8</v>
+      </c>
+      <c r="B196" t="s">
+        <v>203</v>
+      </c>
+      <c r="C196" t="n">
+        <v>1405</v>
+      </c>
+      <c r="D196" t="n">
+        <v>655</v>
+      </c>
+      <c r="E196" t="n">
+        <v>15</v>
+      </c>
+      <c r="F196" t="n">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>8</v>
+      </c>
+      <c r="B197" t="s">
+        <v>204</v>
+      </c>
+      <c r="C197" t="n">
+        <v>16645</v>
+      </c>
+      <c r="D197" t="n">
+        <v>10205</v>
+      </c>
+      <c r="E197" t="n">
+        <v>130</v>
+      </c>
+      <c r="F197" t="n">
+        <v>21340</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>6</v>
+      </c>
+      <c r="B198" t="s">
+        <v>205</v>
+      </c>
+      <c r="C198" t="n">
+        <v>95</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0</v>
+      </c>
+      <c r="E198" t="n">
+        <v>10</v>
+      </c>
+      <c r="F198" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>6</v>
+      </c>
+      <c r="B199" t="s">
+        <v>206</v>
+      </c>
+      <c r="C199" t="n">
+        <v>200</v>
+      </c>
+      <c r="D199" t="n">
+        <v>30</v>
+      </c>
+      <c r="E199" t="n">
+        <v>10</v>
+      </c>
+      <c r="F199" t="n">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>8</v>
+      </c>
+      <c r="B200" t="s">
+        <v>207</v>
+      </c>
+      <c r="C200" t="n">
+        <v>1315</v>
+      </c>
+      <c r="D200" t="n">
+        <v>455</v>
+      </c>
+      <c r="E200" t="n">
+        <v>10</v>
+      </c>
+      <c r="F200" t="n">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>8</v>
+      </c>
+      <c r="B201" t="s">
+        <v>208</v>
+      </c>
+      <c r="C201" t="n">
+        <v>32815</v>
+      </c>
+      <c r="D201" t="n">
+        <v>18955</v>
+      </c>
+      <c r="E201" t="n">
+        <v>690</v>
+      </c>
+      <c r="F201" t="n">
+        <v>50770</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>8</v>
+      </c>
+      <c r="B202" t="s">
+        <v>209</v>
+      </c>
+      <c r="C202" t="n">
+        <v>102485</v>
+      </c>
+      <c r="D202" t="n">
+        <v>28250</v>
+      </c>
+      <c r="E202" t="n">
+        <v>1210</v>
+      </c>
+      <c r="F202" t="n">
+        <v>132115</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>8</v>
+      </c>
+      <c r="B203" t="s">
+        <v>210</v>
+      </c>
+      <c r="C203" t="n">
+        <v>10</v>
+      </c>
+      <c r="D203" t="n">
+        <v>5</v>
+      </c>
+      <c r="E203" t="n">
+        <v>0</v>
+      </c>
+      <c r="F203" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>8</v>
+      </c>
+      <c r="B204" t="s">
+        <v>211</v>
+      </c>
+      <c r="C204" t="n">
+        <v>210815</v>
+      </c>
+      <c r="D204" t="n">
+        <v>128785</v>
+      </c>
+      <c r="E204" t="n">
+        <v>1495</v>
+      </c>
+      <c r="F204" t="n">
+        <v>322220</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>8</v>
+      </c>
+      <c r="B205" t="s">
+        <v>212</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1035</v>
+      </c>
+      <c r="D205" t="n">
+        <v>610</v>
+      </c>
+      <c r="E205" t="n">
+        <v>20</v>
+      </c>
+      <c r="F205" t="n">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>8</v>
+      </c>
+      <c r="B206" t="s">
+        <v>213</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1720</v>
+      </c>
+      <c r="D206" t="n">
+        <v>995</v>
+      </c>
+      <c r="E206" t="n">
+        <v>15</v>
+      </c>
+      <c r="F206" t="n">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>8</v>
+      </c>
+      <c r="B207" t="s">
+        <v>214</v>
+      </c>
+      <c r="C207" t="n">
+        <v>156430</v>
+      </c>
+      <c r="D207" t="n">
+        <v>104245</v>
+      </c>
+      <c r="E207" t="n">
+        <v>8075</v>
+      </c>
+      <c r="F207" t="n">
+        <v>198895</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>8</v>
+      </c>
+      <c r="B208" t="s">
+        <v>215</v>
+      </c>
+      <c r="C208" t="n">
+        <v>3895</v>
+      </c>
+      <c r="D208" t="n">
+        <v>355</v>
+      </c>
+      <c r="E208" t="n">
+        <v>35</v>
+      </c>
+      <c r="F208" t="n">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>6</v>
+      </c>
+      <c r="B209" t="s">
+        <v>216</v>
+      </c>
+      <c r="C209" t="n">
+        <v>10</v>
+      </c>
+      <c r="D209" t="n">
+        <v>0</v>
+      </c>
+      <c r="E209" t="n">
+        <v>0</v>
+      </c>
+      <c r="F209" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>8</v>
+      </c>
+      <c r="B210" t="s">
+        <v>217</v>
+      </c>
+      <c r="C210" t="n">
+        <v>1110</v>
+      </c>
+      <c r="D210" t="n">
+        <v>310</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0</v>
+      </c>
+      <c r="F210" t="n">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>8</v>
+      </c>
+      <c r="B211" t="s">
+        <v>218</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1075</v>
+      </c>
+      <c r="D211" t="n">
+        <v>95</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0</v>
+      </c>
+      <c r="F211" t="n">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>8</v>
+      </c>
+      <c r="B212" t="s">
+        <v>219</v>
+      </c>
+      <c r="C212" t="n">
+        <v>3990</v>
+      </c>
+      <c r="D212" t="n">
+        <v>1385</v>
+      </c>
+      <c r="E212" t="n">
+        <v>10</v>
+      </c>
+      <c r="F212" t="n">
+        <v>8240</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>6</v>
+      </c>
+      <c r="B213" t="s">
+        <v>220</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1840</v>
+      </c>
+      <c r="D213" t="n">
+        <v>800</v>
+      </c>
+      <c r="E213" t="n">
+        <v>75</v>
+      </c>
+      <c r="F213" t="n">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>8</v>
+      </c>
+      <c r="B214" t="s">
+        <v>221</v>
+      </c>
+      <c r="C214" t="n">
+        <v>12915</v>
+      </c>
+      <c r="D214" t="n">
+        <v>7650</v>
+      </c>
+      <c r="E214" t="n">
+        <v>105</v>
+      </c>
+      <c r="F214" t="n">
+        <v>16530</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>8</v>
+      </c>
+      <c r="B215" t="s">
+        <v>222</v>
+      </c>
+      <c r="C215" t="n">
+        <v>13555</v>
+      </c>
+      <c r="D215" t="n">
+        <v>7085</v>
+      </c>
+      <c r="E215" t="n">
+        <v>895</v>
+      </c>
+      <c r="F215" t="n">
+        <v>20985</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>8</v>
+      </c>
+      <c r="B216" t="s">
+        <v>223</v>
+      </c>
+      <c r="C216" t="n">
         <v>9080</v>
       </c>
-      <c r="D179" t="n">
+      <c r="D216" t="n">
         <v>2615</v>
       </c>
-      <c r="E179" t="n">
+      <c r="E216" t="n">
         <v>15</v>
       </c>
-      <c r="F179" t="n">
+      <c r="F216" t="n">
         <v>22415</v>
       </c>
     </row>

--- a/inst/extdata/can_lang.xlsx
+++ b/inst/extdata/can_lang.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="223">
   <si>
     <t xml:space="preserve">category</t>
   </si>
@@ -435,9 +435,6 @@
   </si>
   <si>
     <t xml:space="preserve">Nisga'a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-official languages</t>
   </si>
   <si>
     <t xml:space="preserve">North Slavey (Hare)</t>
@@ -3677,22 +3674,22 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B134" t="s">
         <v>141</v>
       </c>
       <c r="C134" t="n">
-        <v>7321060</v>
+        <v>765</v>
       </c>
       <c r="D134" t="n">
-        <v>3997195</v>
+        <v>340</v>
       </c>
       <c r="E134" t="n">
-        <v>275435</v>
+        <v>95</v>
       </c>
       <c r="F134" t="n">
-        <v>9369280</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="135">
@@ -3703,16 +3700,16 @@
         <v>142</v>
       </c>
       <c r="C135" t="n">
-        <v>765</v>
+        <v>315</v>
       </c>
       <c r="D135" t="n">
-        <v>340</v>
+        <v>110</v>
       </c>
       <c r="E135" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="F135" t="n">
-        <v>1005</v>
+        <v>550</v>
       </c>
     </row>
     <row r="136">
@@ -3723,56 +3720,56 @@
         <v>143</v>
       </c>
       <c r="C136" t="n">
-        <v>315</v>
+        <v>220</v>
       </c>
       <c r="D136" t="n">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="E136" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>550</v>
+        <v>280</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B137" t="s">
         <v>144</v>
       </c>
       <c r="C137" t="n">
-        <v>220</v>
+        <v>4615</v>
       </c>
       <c r="D137" t="n">
-        <v>30</v>
+        <v>350</v>
       </c>
       <c r="E137" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="F137" t="n">
-        <v>280</v>
+        <v>8120</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B138" t="s">
         <v>145</v>
       </c>
       <c r="C138" t="n">
-        <v>4615</v>
+        <v>280</v>
       </c>
       <c r="D138" t="n">
-        <v>350</v>
+        <v>30</v>
       </c>
       <c r="E138" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F138" t="n">
-        <v>8120</v>
+        <v>560</v>
       </c>
     </row>
     <row r="139">
@@ -3783,16 +3780,16 @@
         <v>146</v>
       </c>
       <c r="C139" t="n">
-        <v>280</v>
+        <v>12855</v>
       </c>
       <c r="D139" t="n">
-        <v>30</v>
+        <v>7905</v>
       </c>
       <c r="E139" t="n">
-        <v>10</v>
+        <v>1080</v>
       </c>
       <c r="F139" t="n">
-        <v>560</v>
+        <v>15605</v>
       </c>
     </row>
     <row r="140">
@@ -3803,16 +3800,16 @@
         <v>147</v>
       </c>
       <c r="C140" t="n">
-        <v>12855</v>
+        <v>17885</v>
       </c>
       <c r="D140" t="n">
-        <v>7905</v>
+        <v>6175</v>
       </c>
       <c r="E140" t="n">
-        <v>1080</v>
+        <v>765</v>
       </c>
       <c r="F140" t="n">
-        <v>15605</v>
+        <v>28580</v>
       </c>
     </row>
     <row r="141">
@@ -3823,16 +3820,16 @@
         <v>148</v>
       </c>
       <c r="C141" t="n">
-        <v>17885</v>
+        <v>275</v>
       </c>
       <c r="D141" t="n">
-        <v>6175</v>
+        <v>80</v>
       </c>
       <c r="E141" t="n">
-        <v>765</v>
+        <v>20</v>
       </c>
       <c r="F141" t="n">
-        <v>28580</v>
+        <v>820</v>
       </c>
     </row>
     <row r="142">
@@ -3843,36 +3840,36 @@
         <v>149</v>
       </c>
       <c r="C142" t="n">
-        <v>275</v>
+        <v>60</v>
       </c>
       <c r="D142" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="E142" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>820</v>
+        <v>185</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B143" t="s">
         <v>150</v>
       </c>
       <c r="C143" t="n">
-        <v>60</v>
+        <v>1055</v>
       </c>
       <c r="D143" t="n">
-        <v>15</v>
+        <v>475</v>
       </c>
       <c r="E143" t="n">
         <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>185</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="144">
@@ -3883,16 +3880,16 @@
         <v>151</v>
       </c>
       <c r="C144" t="n">
-        <v>1055</v>
+        <v>4960</v>
       </c>
       <c r="D144" t="n">
-        <v>475</v>
+        <v>3410</v>
       </c>
       <c r="E144" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F144" t="n">
-        <v>1530</v>
+        <v>6245</v>
       </c>
     </row>
     <row r="145">
@@ -3903,56 +3900,56 @@
         <v>152</v>
       </c>
       <c r="C145" t="n">
-        <v>4960</v>
+        <v>3685</v>
       </c>
       <c r="D145" t="n">
-        <v>3410</v>
+        <v>1110</v>
       </c>
       <c r="E145" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="F145" t="n">
-        <v>6245</v>
+        <v>9730</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B146" t="s">
         <v>153</v>
       </c>
       <c r="C146" t="n">
-        <v>3685</v>
+        <v>150</v>
       </c>
       <c r="D146" t="n">
-        <v>1110</v>
+        <v>75</v>
       </c>
       <c r="E146" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>9730</v>
+        <v>205</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B147" t="s">
         <v>154</v>
       </c>
       <c r="C147" t="n">
-        <v>150</v>
+        <v>4045</v>
       </c>
       <c r="D147" t="n">
-        <v>75</v>
+        <v>1200</v>
       </c>
       <c r="E147" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F147" t="n">
-        <v>205</v>
+        <v>5425</v>
       </c>
     </row>
     <row r="148">
@@ -3963,16 +3960,16 @@
         <v>155</v>
       </c>
       <c r="C148" t="n">
-        <v>4045</v>
+        <v>1390</v>
       </c>
       <c r="D148" t="n">
-        <v>1200</v>
+        <v>240</v>
       </c>
       <c r="E148" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>5425</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="149">
@@ -3983,16 +3980,16 @@
         <v>156</v>
       </c>
       <c r="C149" t="n">
-        <v>1390</v>
+        <v>16905</v>
       </c>
       <c r="D149" t="n">
-        <v>240</v>
+        <v>10590</v>
       </c>
       <c r="E149" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F149" t="n">
-        <v>1800</v>
+        <v>23180</v>
       </c>
     </row>
     <row r="150">
@@ -4003,56 +4000,56 @@
         <v>157</v>
       </c>
       <c r="C150" t="n">
-        <v>16905</v>
+        <v>214200</v>
       </c>
       <c r="D150" t="n">
-        <v>10590</v>
+        <v>143025</v>
       </c>
       <c r="E150" t="n">
-        <v>50</v>
+        <v>4580</v>
       </c>
       <c r="F150" t="n">
-        <v>23180</v>
+        <v>252325</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B151" t="s">
         <v>158</v>
       </c>
       <c r="C151" t="n">
-        <v>214200</v>
+        <v>3065</v>
       </c>
       <c r="D151" t="n">
-        <v>143025</v>
+        <v>1345</v>
       </c>
       <c r="E151" t="n">
-        <v>4580</v>
+        <v>95</v>
       </c>
       <c r="F151" t="n">
-        <v>252325</v>
+        <v>5905</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B152" t="s">
         <v>159</v>
       </c>
       <c r="C152" t="n">
-        <v>3065</v>
+        <v>181710</v>
       </c>
       <c r="D152" t="n">
-        <v>1345</v>
+        <v>74780</v>
       </c>
       <c r="E152" t="n">
-        <v>95</v>
+        <v>2495</v>
       </c>
       <c r="F152" t="n">
-        <v>5905</v>
+        <v>214965</v>
       </c>
     </row>
     <row r="153">
@@ -4063,16 +4060,16 @@
         <v>160</v>
       </c>
       <c r="C153" t="n">
-        <v>181710</v>
+        <v>221535</v>
       </c>
       <c r="D153" t="n">
-        <v>74780</v>
+        <v>98710</v>
       </c>
       <c r="E153" t="n">
-        <v>2495</v>
+        <v>7485</v>
       </c>
       <c r="F153" t="n">
-        <v>214965</v>
+        <v>295955</v>
       </c>
     </row>
     <row r="154">
@@ -4083,16 +4080,16 @@
         <v>161</v>
       </c>
       <c r="C154" t="n">
-        <v>221535</v>
+        <v>501680</v>
       </c>
       <c r="D154" t="n">
-        <v>98710</v>
+        <v>349140</v>
       </c>
       <c r="E154" t="n">
-        <v>7485</v>
+        <v>27865</v>
       </c>
       <c r="F154" t="n">
-        <v>295955</v>
+        <v>668240</v>
       </c>
     </row>
     <row r="155">
@@ -4103,16 +4100,16 @@
         <v>162</v>
       </c>
       <c r="C155" t="n">
-        <v>501680</v>
+        <v>695</v>
       </c>
       <c r="D155" t="n">
-        <v>349140</v>
+        <v>730</v>
       </c>
       <c r="E155" t="n">
-        <v>27865</v>
+        <v>130</v>
       </c>
       <c r="F155" t="n">
-        <v>668240</v>
+        <v>4665</v>
       </c>
     </row>
     <row r="156">
@@ -4123,16 +4120,16 @@
         <v>163</v>
       </c>
       <c r="C156" t="n">
-        <v>695</v>
+        <v>96660</v>
       </c>
       <c r="D156" t="n">
-        <v>730</v>
+        <v>53325</v>
       </c>
       <c r="E156" t="n">
-        <v>130</v>
+        <v>745</v>
       </c>
       <c r="F156" t="n">
-        <v>4665</v>
+        <v>115050</v>
       </c>
     </row>
     <row r="157">
@@ -4143,16 +4140,16 @@
         <v>164</v>
       </c>
       <c r="C157" t="n">
-        <v>96660</v>
+        <v>5850</v>
       </c>
       <c r="D157" t="n">
-        <v>53325</v>
+        <v>2110</v>
       </c>
       <c r="E157" t="n">
-        <v>745</v>
+        <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>115050</v>
+        <v>8590</v>
       </c>
     </row>
     <row r="158">
@@ -4163,36 +4160,36 @@
         <v>165</v>
       </c>
       <c r="C158" t="n">
-        <v>5850</v>
+        <v>188255</v>
       </c>
       <c r="D158" t="n">
-        <v>2110</v>
+        <v>116595</v>
       </c>
       <c r="E158" t="n">
-        <v>0</v>
+        <v>4855</v>
       </c>
       <c r="F158" t="n">
-        <v>8590</v>
+        <v>269645</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B159" t="s">
         <v>166</v>
       </c>
       <c r="C159" t="n">
-        <v>188255</v>
+        <v>260</v>
       </c>
       <c r="D159" t="n">
-        <v>116595</v>
+        <v>25</v>
       </c>
       <c r="E159" t="n">
-        <v>4855</v>
+        <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>269645</v>
+        <v>560</v>
       </c>
     </row>
     <row r="160">
@@ -4203,76 +4200,76 @@
         <v>167</v>
       </c>
       <c r="C160" t="n">
-        <v>260</v>
+        <v>80</v>
       </c>
       <c r="D160" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E160" t="n">
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>560</v>
+        <v>145</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B161" t="s">
         <v>168</v>
       </c>
       <c r="C161" t="n">
-        <v>80</v>
+        <v>1090</v>
       </c>
       <c r="D161" t="n">
-        <v>10</v>
+        <v>190</v>
       </c>
       <c r="E161" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F161" t="n">
-        <v>145</v>
+        <v>3980</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B162" t="s">
         <v>169</v>
       </c>
       <c r="C162" t="n">
-        <v>1090</v>
+        <v>85</v>
       </c>
       <c r="D162" t="n">
-        <v>190</v>
+        <v>15</v>
       </c>
       <c r="E162" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>3980</v>
+        <v>185</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B163" t="s">
         <v>170</v>
       </c>
       <c r="C163" t="n">
-        <v>85</v>
+        <v>2150</v>
       </c>
       <c r="D163" t="n">
-        <v>15</v>
+        <v>1205</v>
       </c>
       <c r="E163" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="F163" t="n">
-        <v>185</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="164">
@@ -4283,16 +4280,16 @@
         <v>171</v>
       </c>
       <c r="C164" t="n">
-        <v>2150</v>
+        <v>57350</v>
       </c>
       <c r="D164" t="n">
-        <v>1205</v>
+        <v>31750</v>
       </c>
       <c r="E164" t="n">
-        <v>65</v>
+        <v>530</v>
       </c>
       <c r="F164" t="n">
-        <v>3220</v>
+        <v>73780</v>
       </c>
     </row>
     <row r="165">
@@ -4303,16 +4300,16 @@
         <v>172</v>
       </c>
       <c r="C165" t="n">
-        <v>57350</v>
+        <v>9550</v>
       </c>
       <c r="D165" t="n">
-        <v>31750</v>
+        <v>3890</v>
       </c>
       <c r="E165" t="n">
-        <v>530</v>
+        <v>30</v>
       </c>
       <c r="F165" t="n">
-        <v>73780</v>
+        <v>11275</v>
       </c>
     </row>
     <row r="166">
@@ -4323,56 +4320,56 @@
         <v>173</v>
       </c>
       <c r="C166" t="n">
-        <v>9550</v>
+        <v>3185</v>
       </c>
       <c r="D166" t="n">
-        <v>3890</v>
+        <v>1035</v>
       </c>
       <c r="E166" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>11275</v>
+        <v>5430</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B167" t="s">
         <v>174</v>
       </c>
       <c r="C167" t="n">
-        <v>3185</v>
+        <v>445</v>
       </c>
       <c r="D167" t="n">
-        <v>1035</v>
+        <v>50</v>
       </c>
       <c r="E167" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F167" t="n">
-        <v>5430</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B168" t="s">
         <v>175</v>
       </c>
       <c r="C168" t="n">
-        <v>445</v>
+        <v>4125</v>
       </c>
       <c r="D168" t="n">
-        <v>50</v>
+        <v>6690</v>
       </c>
       <c r="E168" t="n">
-        <v>35</v>
+        <v>645</v>
       </c>
       <c r="F168" t="n">
-        <v>1305</v>
+        <v>22280</v>
       </c>
     </row>
     <row r="169">
@@ -4383,16 +4380,16 @@
         <v>176</v>
       </c>
       <c r="C169" t="n">
-        <v>4125</v>
+        <v>11860</v>
       </c>
       <c r="D169" t="n">
-        <v>6690</v>
+        <v>4975</v>
       </c>
       <c r="E169" t="n">
-        <v>645</v>
+        <v>35</v>
       </c>
       <c r="F169" t="n">
-        <v>22280</v>
+        <v>20260</v>
       </c>
     </row>
     <row r="170">
@@ -4403,36 +4400,36 @@
         <v>177</v>
       </c>
       <c r="C170" t="n">
-        <v>11860</v>
+        <v>16335</v>
       </c>
       <c r="D170" t="n">
-        <v>4975</v>
+        <v>7790</v>
       </c>
       <c r="E170" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F170" t="n">
-        <v>20260</v>
+        <v>27825</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B171" t="s">
         <v>178</v>
       </c>
       <c r="C171" t="n">
-        <v>16335</v>
+        <v>55</v>
       </c>
       <c r="D171" t="n">
-        <v>7790</v>
+        <v>20</v>
       </c>
       <c r="E171" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>27825</v>
+        <v>140</v>
       </c>
     </row>
     <row r="172">
@@ -4443,36 +4440,36 @@
         <v>179</v>
       </c>
       <c r="C172" t="n">
-        <v>55</v>
+        <v>280</v>
       </c>
       <c r="D172" t="n">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="E172" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F172" t="n">
-        <v>140</v>
+        <v>675</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B173" t="s">
         <v>180</v>
       </c>
       <c r="C173" t="n">
-        <v>280</v>
+        <v>2420</v>
       </c>
       <c r="D173" t="n">
-        <v>105</v>
+        <v>670</v>
       </c>
       <c r="E173" t="n">
         <v>10</v>
       </c>
       <c r="F173" t="n">
-        <v>675</v>
+        <v>2995</v>
       </c>
     </row>
     <row r="174">
@@ -4483,16 +4480,16 @@
         <v>181</v>
       </c>
       <c r="C174" t="n">
-        <v>2420</v>
+        <v>17580</v>
       </c>
       <c r="D174" t="n">
-        <v>670</v>
+        <v>5610</v>
       </c>
       <c r="E174" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F174" t="n">
-        <v>2995</v>
+        <v>21470</v>
       </c>
     </row>
     <row r="175">
@@ -4503,16 +4500,16 @@
         <v>182</v>
       </c>
       <c r="C175" t="n">
-        <v>17580</v>
+        <v>9785</v>
       </c>
       <c r="D175" t="n">
-        <v>5610</v>
+        <v>2055</v>
       </c>
       <c r="E175" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="F175" t="n">
-        <v>21470</v>
+        <v>11490</v>
       </c>
     </row>
     <row r="176">
@@ -4523,36 +4520,36 @@
         <v>183</v>
       </c>
       <c r="C176" t="n">
-        <v>9785</v>
+        <v>36755</v>
       </c>
       <c r="D176" t="n">
-        <v>2055</v>
+        <v>22895</v>
       </c>
       <c r="E176" t="n">
-        <v>15</v>
+        <v>220</v>
       </c>
       <c r="F176" t="n">
-        <v>11490</v>
+        <v>49660</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B177" t="s">
         <v>184</v>
       </c>
       <c r="C177" t="n">
-        <v>36755</v>
+        <v>945</v>
       </c>
       <c r="D177" t="n">
-        <v>22895</v>
+        <v>370</v>
       </c>
       <c r="E177" t="n">
-        <v>220</v>
+        <v>35</v>
       </c>
       <c r="F177" t="n">
-        <v>49660</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="178">
@@ -4563,16 +4560,16 @@
         <v>185</v>
       </c>
       <c r="C178" t="n">
-        <v>945</v>
+        <v>45</v>
       </c>
       <c r="D178" t="n">
-        <v>370</v>
+        <v>15</v>
       </c>
       <c r="E178" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>1365</v>
+        <v>40</v>
       </c>
     </row>
     <row r="179">
@@ -4583,56 +4580,56 @@
         <v>186</v>
       </c>
       <c r="C179" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="D179" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E179" t="n">
         <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>40</v>
+        <v>145</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B180" t="s">
         <v>187</v>
       </c>
       <c r="C180" t="n">
-        <v>70</v>
+        <v>458850</v>
       </c>
       <c r="D180" t="n">
-        <v>5</v>
+        <v>263505</v>
       </c>
       <c r="E180" t="n">
-        <v>0</v>
+        <v>13030</v>
       </c>
       <c r="F180" t="n">
-        <v>145</v>
+        <v>995260</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B181" t="s">
         <v>188</v>
       </c>
       <c r="C181" t="n">
-        <v>458850</v>
+        <v>40</v>
       </c>
       <c r="D181" t="n">
-        <v>263505</v>
+        <v>5</v>
       </c>
       <c r="E181" t="n">
-        <v>13030</v>
+        <v>10</v>
       </c>
       <c r="F181" t="n">
-        <v>995260</v>
+        <v>285</v>
       </c>
     </row>
     <row r="182">
@@ -4643,16 +4640,16 @@
         <v>189</v>
       </c>
       <c r="C182" t="n">
-        <v>40</v>
+        <v>3025</v>
       </c>
       <c r="D182" t="n">
-        <v>5</v>
+        <v>1950</v>
       </c>
       <c r="E182" t="n">
-        <v>10</v>
+        <v>240</v>
       </c>
       <c r="F182" t="n">
-        <v>285</v>
+        <v>3675</v>
       </c>
     </row>
     <row r="183">
@@ -4663,76 +4660,76 @@
         <v>190</v>
       </c>
       <c r="C183" t="n">
-        <v>3025</v>
+        <v>80</v>
       </c>
       <c r="D183" t="n">
-        <v>1950</v>
+        <v>25</v>
       </c>
       <c r="E183" t="n">
-        <v>240</v>
+        <v>15</v>
       </c>
       <c r="F183" t="n">
-        <v>3675</v>
+        <v>365</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B184" t="s">
         <v>191</v>
       </c>
       <c r="C184" t="n">
+        <v>13370</v>
+      </c>
+      <c r="D184" t="n">
+        <v>5370</v>
+      </c>
+      <c r="E184" t="n">
         <v>80</v>
       </c>
-      <c r="D184" t="n">
-        <v>25</v>
-      </c>
-      <c r="E184" t="n">
-        <v>15</v>
-      </c>
       <c r="F184" t="n">
-        <v>365</v>
+        <v>38685</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B185" t="s">
         <v>192</v>
       </c>
       <c r="C185" t="n">
-        <v>13370</v>
+        <v>1440</v>
       </c>
       <c r="D185" t="n">
-        <v>5370</v>
+        <v>330</v>
       </c>
       <c r="E185" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="F185" t="n">
-        <v>38685</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B186" t="s">
         <v>193</v>
       </c>
       <c r="C186" t="n">
-        <v>1440</v>
+        <v>6840</v>
       </c>
       <c r="D186" t="n">
-        <v>330</v>
+        <v>1050</v>
       </c>
       <c r="E186" t="n">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="F186" t="n">
-        <v>2350</v>
+        <v>14140</v>
       </c>
     </row>
     <row r="187">
@@ -4743,56 +4740,56 @@
         <v>194</v>
       </c>
       <c r="C187" t="n">
-        <v>6840</v>
+        <v>431385</v>
       </c>
       <c r="D187" t="n">
-        <v>1050</v>
+        <v>213790</v>
       </c>
       <c r="E187" t="n">
-        <v>125</v>
+        <v>3450</v>
       </c>
       <c r="F187" t="n">
-        <v>14140</v>
+        <v>612735</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B188" t="s">
         <v>195</v>
       </c>
       <c r="C188" t="n">
-        <v>431385</v>
+        <v>95</v>
       </c>
       <c r="D188" t="n">
-        <v>213790</v>
+        <v>5</v>
       </c>
       <c r="E188" t="n">
-        <v>3450</v>
+        <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>612735</v>
+        <v>265</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B189" t="s">
         <v>196</v>
       </c>
       <c r="C189" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D189" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E189" t="n">
         <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>265</v>
+        <v>115</v>
       </c>
     </row>
     <row r="190">
@@ -4803,16 +4800,16 @@
         <v>197</v>
       </c>
       <c r="C190" t="n">
-        <v>85</v>
+        <v>140720</v>
       </c>
       <c r="D190" t="n">
-        <v>30</v>
+        <v>96955</v>
       </c>
       <c r="E190" t="n">
-        <v>0</v>
+        <v>2085</v>
       </c>
       <c r="F190" t="n">
-        <v>115</v>
+        <v>189860</v>
       </c>
     </row>
     <row r="191">
@@ -4823,16 +4820,16 @@
         <v>198</v>
       </c>
       <c r="C191" t="n">
-        <v>140720</v>
+        <v>15660</v>
       </c>
       <c r="D191" t="n">
-        <v>96955</v>
+        <v>8280</v>
       </c>
       <c r="E191" t="n">
-        <v>2085</v>
+        <v>40</v>
       </c>
       <c r="F191" t="n">
-        <v>189860</v>
+        <v>23165</v>
       </c>
     </row>
     <row r="192">
@@ -4843,56 +4840,56 @@
         <v>199</v>
       </c>
       <c r="C192" t="n">
-        <v>15660</v>
+        <v>9255</v>
       </c>
       <c r="D192" t="n">
-        <v>8280</v>
+        <v>3365</v>
       </c>
       <c r="E192" t="n">
-        <v>40</v>
+        <v>525</v>
       </c>
       <c r="F192" t="n">
-        <v>23165</v>
+        <v>15395</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B193" t="s">
         <v>200</v>
       </c>
       <c r="C193" t="n">
-        <v>9255</v>
+        <v>335</v>
       </c>
       <c r="D193" t="n">
-        <v>3365</v>
+        <v>20</v>
       </c>
       <c r="E193" t="n">
-        <v>525</v>
+        <v>0</v>
       </c>
       <c r="F193" t="n">
-        <v>15395</v>
+        <v>450</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B194" t="s">
         <v>201</v>
       </c>
       <c r="C194" t="n">
-        <v>335</v>
+        <v>6160</v>
       </c>
       <c r="D194" t="n">
-        <v>20</v>
+        <v>4590</v>
       </c>
       <c r="E194" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F194" t="n">
-        <v>450</v>
+        <v>7050</v>
       </c>
     </row>
     <row r="195">
@@ -4903,16 +4900,16 @@
         <v>202</v>
       </c>
       <c r="C195" t="n">
-        <v>6160</v>
+        <v>1405</v>
       </c>
       <c r="D195" t="n">
-        <v>4590</v>
+        <v>655</v>
       </c>
       <c r="E195" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F195" t="n">
-        <v>7050</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="196">
@@ -4923,36 +4920,36 @@
         <v>203</v>
       </c>
       <c r="C196" t="n">
-        <v>1405</v>
+        <v>16645</v>
       </c>
       <c r="D196" t="n">
-        <v>655</v>
+        <v>10205</v>
       </c>
       <c r="E196" t="n">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="F196" t="n">
-        <v>2380</v>
+        <v>21340</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B197" t="s">
         <v>204</v>
       </c>
       <c r="C197" t="n">
-        <v>16645</v>
+        <v>95</v>
       </c>
       <c r="D197" t="n">
-        <v>10205</v>
+        <v>0</v>
       </c>
       <c r="E197" t="n">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="F197" t="n">
-        <v>21340</v>
+        <v>260</v>
       </c>
     </row>
     <row r="198">
@@ -4963,36 +4960,36 @@
         <v>205</v>
       </c>
       <c r="C198" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="D198" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E198" t="n">
         <v>10</v>
       </c>
       <c r="F198" t="n">
-        <v>260</v>
+        <v>410</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B199" t="s">
         <v>206</v>
       </c>
       <c r="C199" t="n">
-        <v>200</v>
+        <v>1315</v>
       </c>
       <c r="D199" t="n">
-        <v>30</v>
+        <v>455</v>
       </c>
       <c r="E199" t="n">
         <v>10</v>
       </c>
       <c r="F199" t="n">
-        <v>410</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="200">
@@ -5003,16 +5000,16 @@
         <v>207</v>
       </c>
       <c r="C200" t="n">
-        <v>1315</v>
+        <v>32815</v>
       </c>
       <c r="D200" t="n">
-        <v>455</v>
+        <v>18955</v>
       </c>
       <c r="E200" t="n">
-        <v>10</v>
+        <v>690</v>
       </c>
       <c r="F200" t="n">
-        <v>1875</v>
+        <v>50770</v>
       </c>
     </row>
     <row r="201">
@@ -5023,16 +5020,16 @@
         <v>208</v>
       </c>
       <c r="C201" t="n">
-        <v>32815</v>
+        <v>102485</v>
       </c>
       <c r="D201" t="n">
-        <v>18955</v>
+        <v>28250</v>
       </c>
       <c r="E201" t="n">
-        <v>690</v>
+        <v>1210</v>
       </c>
       <c r="F201" t="n">
-        <v>50770</v>
+        <v>132115</v>
       </c>
     </row>
     <row r="202">
@@ -5043,16 +5040,16 @@
         <v>209</v>
       </c>
       <c r="C202" t="n">
-        <v>102485</v>
+        <v>10</v>
       </c>
       <c r="D202" t="n">
-        <v>28250</v>
+        <v>5</v>
       </c>
       <c r="E202" t="n">
-        <v>1210</v>
+        <v>0</v>
       </c>
       <c r="F202" t="n">
-        <v>132115</v>
+        <v>25</v>
       </c>
     </row>
     <row r="203">
@@ -5063,16 +5060,16 @@
         <v>210</v>
       </c>
       <c r="C203" t="n">
-        <v>10</v>
+        <v>210815</v>
       </c>
       <c r="D203" t="n">
-        <v>5</v>
+        <v>128785</v>
       </c>
       <c r="E203" t="n">
-        <v>0</v>
+        <v>1495</v>
       </c>
       <c r="F203" t="n">
-        <v>25</v>
+        <v>322220</v>
       </c>
     </row>
     <row r="204">
@@ -5083,16 +5080,16 @@
         <v>211</v>
       </c>
       <c r="C204" t="n">
-        <v>210815</v>
+        <v>1035</v>
       </c>
       <c r="D204" t="n">
-        <v>128785</v>
+        <v>610</v>
       </c>
       <c r="E204" t="n">
-        <v>1495</v>
+        <v>20</v>
       </c>
       <c r="F204" t="n">
-        <v>322220</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="205">
@@ -5103,16 +5100,16 @@
         <v>212</v>
       </c>
       <c r="C205" t="n">
-        <v>1035</v>
+        <v>1720</v>
       </c>
       <c r="D205" t="n">
-        <v>610</v>
+        <v>995</v>
       </c>
       <c r="E205" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F205" t="n">
-        <v>1390</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="206">
@@ -5123,16 +5120,16 @@
         <v>213</v>
       </c>
       <c r="C206" t="n">
-        <v>1720</v>
+        <v>156430</v>
       </c>
       <c r="D206" t="n">
-        <v>995</v>
+        <v>104245</v>
       </c>
       <c r="E206" t="n">
-        <v>15</v>
+        <v>8075</v>
       </c>
       <c r="F206" t="n">
-        <v>2465</v>
+        <v>198895</v>
       </c>
     </row>
     <row r="207">
@@ -5143,56 +5140,56 @@
         <v>214</v>
       </c>
       <c r="C207" t="n">
-        <v>156430</v>
+        <v>3895</v>
       </c>
       <c r="D207" t="n">
-        <v>104245</v>
+        <v>355</v>
       </c>
       <c r="E207" t="n">
-        <v>8075</v>
+        <v>35</v>
       </c>
       <c r="F207" t="n">
-        <v>198895</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B208" t="s">
         <v>215</v>
       </c>
       <c r="C208" t="n">
-        <v>3895</v>
+        <v>10</v>
       </c>
       <c r="D208" t="n">
-        <v>355</v>
+        <v>0</v>
       </c>
       <c r="E208" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="F208" t="n">
-        <v>4400</v>
+        <v>25</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B209" t="s">
         <v>216</v>
       </c>
       <c r="C209" t="n">
-        <v>10</v>
+        <v>1110</v>
       </c>
       <c r="D209" t="n">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="E209" t="n">
         <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>25</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="210">
@@ -5203,16 +5200,16 @@
         <v>217</v>
       </c>
       <c r="C210" t="n">
-        <v>1110</v>
+        <v>1075</v>
       </c>
       <c r="D210" t="n">
-        <v>310</v>
+        <v>95</v>
       </c>
       <c r="E210" t="n">
         <v>0</v>
       </c>
       <c r="F210" t="n">
-        <v>1395</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="211">
@@ -5223,56 +5220,56 @@
         <v>218</v>
       </c>
       <c r="C211" t="n">
-        <v>1075</v>
+        <v>3990</v>
       </c>
       <c r="D211" t="n">
-        <v>95</v>
+        <v>1385</v>
       </c>
       <c r="E211" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F211" t="n">
-        <v>1695</v>
+        <v>8240</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B212" t="s">
         <v>219</v>
       </c>
       <c r="C212" t="n">
-        <v>3990</v>
+        <v>1840</v>
       </c>
       <c r="D212" t="n">
-        <v>1385</v>
+        <v>800</v>
       </c>
       <c r="E212" t="n">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="F212" t="n">
-        <v>8240</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B213" t="s">
         <v>220</v>
       </c>
       <c r="C213" t="n">
-        <v>1840</v>
+        <v>12915</v>
       </c>
       <c r="D213" t="n">
-        <v>800</v>
+        <v>7650</v>
       </c>
       <c r="E213" t="n">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="F213" t="n">
-        <v>2665</v>
+        <v>16530</v>
       </c>
     </row>
     <row r="214">
@@ -5283,16 +5280,16 @@
         <v>221</v>
       </c>
       <c r="C214" t="n">
-        <v>12915</v>
+        <v>13555</v>
       </c>
       <c r="D214" t="n">
-        <v>7650</v>
+        <v>7085</v>
       </c>
       <c r="E214" t="n">
-        <v>105</v>
+        <v>895</v>
       </c>
       <c r="F214" t="n">
-        <v>16530</v>
+        <v>20985</v>
       </c>
     </row>
     <row r="215">
@@ -5303,35 +5300,15 @@
         <v>222</v>
       </c>
       <c r="C215" t="n">
-        <v>13555</v>
+        <v>9080</v>
       </c>
       <c r="D215" t="n">
-        <v>7085</v>
+        <v>2615</v>
       </c>
       <c r="E215" t="n">
-        <v>895</v>
+        <v>15</v>
       </c>
       <c r="F215" t="n">
-        <v>20985</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="s">
-        <v>8</v>
-      </c>
-      <c r="B216" t="s">
-        <v>223</v>
-      </c>
-      <c r="C216" t="n">
-        <v>9080</v>
-      </c>
-      <c r="D216" t="n">
-        <v>2615</v>
-      </c>
-      <c r="E216" t="n">
-        <v>15</v>
-      </c>
-      <c r="F216" t="n">
         <v>22415</v>
       </c>
     </row>
